--- a/InputData/elec/BRPSPTY/BAU RPS Percentage This Year.xlsx
+++ b/InputData/elec/BRPSPTY/BAU RPS Percentage This Year.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mdeng\Dropbox (Energy Innovation)\EU EPS\InputData\elec\BRPSPTY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-eu\InputData\elec\BRPSPTY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{620F8629-D6B3-480E-A714-94960ADDEB92}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3934D029-18E0-4706-AC34-19574D5E7356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39555" yWindow="4515" windowWidth="20100" windowHeight="16125" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="jrc potencia scenario" sheetId="16" r:id="rId2"/>
     <sheet name="BRPSPTY" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1" iterateDelta="1.0000000000000001E-5"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,14 +33,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
   <si>
     <t>BRPSPTY BAU Renewable Portfolio Std Percentage This Year</t>
   </si>
   <si>
-    <t>Year</t>
-  </si>
-  <si>
     <t>Note:</t>
   </si>
   <si>
@@ -56,9 +53,6 @@
     <t>Sources:</t>
   </si>
   <si>
-    <t>RPS Fraction (dimensionless)</t>
-  </si>
-  <si>
     <t>https://ec.europa.eu/jrc/en/publication/eur-scientific-and-technical-research-reports/potencia-central-scenario-eu-energy-outlook-2050</t>
   </si>
   <si>
@@ -84,6 +78,258 @@
   </si>
   <si>
     <t>The scenario reflects existing policies and measures that were in place by the end of 2017.</t>
+  </si>
+  <si>
+    <t>Note that this variable is populating the Future Year subscript.  It is not a normal time-series data variable.  Therefore, this sheet must include a value for every year that exists in the Future Year subscript (and no other years should be present).</t>
+  </si>
+  <si>
+    <t>Unit: dimensionless</t>
+  </si>
+  <si>
+    <t>RPS Fraction</t>
+  </si>
+  <si>
+    <t>Year2020</t>
+  </si>
+  <si>
+    <t>Year2021</t>
+  </si>
+  <si>
+    <t>Year2022</t>
+  </si>
+  <si>
+    <t>Year2023</t>
+  </si>
+  <si>
+    <t>Year2024</t>
+  </si>
+  <si>
+    <t>Year2025</t>
+  </si>
+  <si>
+    <t>Year2026</t>
+  </si>
+  <si>
+    <t>Year2027</t>
+  </si>
+  <si>
+    <t>Year2028</t>
+  </si>
+  <si>
+    <t>Year2029</t>
+  </si>
+  <si>
+    <t>Year2030</t>
+  </si>
+  <si>
+    <t>Year2031</t>
+  </si>
+  <si>
+    <t>Year2032</t>
+  </si>
+  <si>
+    <t>Year2033</t>
+  </si>
+  <si>
+    <t>Year2034</t>
+  </si>
+  <si>
+    <t>Year2035</t>
+  </si>
+  <si>
+    <t>Year2036</t>
+  </si>
+  <si>
+    <t>Year2037</t>
+  </si>
+  <si>
+    <t>Year2038</t>
+  </si>
+  <si>
+    <t>Year2039</t>
+  </si>
+  <si>
+    <t>Year2040</t>
+  </si>
+  <si>
+    <t>Year2041</t>
+  </si>
+  <si>
+    <t>Year2042</t>
+  </si>
+  <si>
+    <t>Year2043</t>
+  </si>
+  <si>
+    <t>Year2044</t>
+  </si>
+  <si>
+    <t>Year2045</t>
+  </si>
+  <si>
+    <t>Year2046</t>
+  </si>
+  <si>
+    <t>Year2047</t>
+  </si>
+  <si>
+    <t>Year2048</t>
+  </si>
+  <si>
+    <t>Year2049</t>
+  </si>
+  <si>
+    <t>Year2050</t>
+  </si>
+  <si>
+    <t>Year2051</t>
+  </si>
+  <si>
+    <t>Year2052</t>
+  </si>
+  <si>
+    <t>Year2053</t>
+  </si>
+  <si>
+    <t>Year2054</t>
+  </si>
+  <si>
+    <t>Year2055</t>
+  </si>
+  <si>
+    <t>Year2056</t>
+  </si>
+  <si>
+    <t>Year2057</t>
+  </si>
+  <si>
+    <t>Year2058</t>
+  </si>
+  <si>
+    <t>Year2059</t>
+  </si>
+  <si>
+    <t>Year2060</t>
+  </si>
+  <si>
+    <t>Year2061</t>
+  </si>
+  <si>
+    <t>Year2062</t>
+  </si>
+  <si>
+    <t>Year2063</t>
+  </si>
+  <si>
+    <t>Year2064</t>
+  </si>
+  <si>
+    <t>Year2065</t>
+  </si>
+  <si>
+    <t>Year2066</t>
+  </si>
+  <si>
+    <t>Year2067</t>
+  </si>
+  <si>
+    <t>Year2068</t>
+  </si>
+  <si>
+    <t>Year2069</t>
+  </si>
+  <si>
+    <t>Year2070</t>
+  </si>
+  <si>
+    <t>Year2071</t>
+  </si>
+  <si>
+    <t>Year2072</t>
+  </si>
+  <si>
+    <t>Year2073</t>
+  </si>
+  <si>
+    <t>Year2074</t>
+  </si>
+  <si>
+    <t>Year2075</t>
+  </si>
+  <si>
+    <t>Year2076</t>
+  </si>
+  <si>
+    <t>Year2077</t>
+  </si>
+  <si>
+    <t>Year2078</t>
+  </si>
+  <si>
+    <t>Year2079</t>
+  </si>
+  <si>
+    <t>Year2080</t>
+  </si>
+  <si>
+    <t>Year2081</t>
+  </si>
+  <si>
+    <t>Year2082</t>
+  </si>
+  <si>
+    <t>Year2083</t>
+  </si>
+  <si>
+    <t>Year2084</t>
+  </si>
+  <si>
+    <t>Year2085</t>
+  </si>
+  <si>
+    <t>Year2086</t>
+  </si>
+  <si>
+    <t>Year2087</t>
+  </si>
+  <si>
+    <t>Year2088</t>
+  </si>
+  <si>
+    <t>Year2089</t>
+  </si>
+  <si>
+    <t>Year2090</t>
+  </si>
+  <si>
+    <t>Year2091</t>
+  </si>
+  <si>
+    <t>Year2092</t>
+  </si>
+  <si>
+    <t>Year2093</t>
+  </si>
+  <si>
+    <t>Year2094</t>
+  </si>
+  <si>
+    <t>Year2095</t>
+  </si>
+  <si>
+    <t>Year2096</t>
+  </si>
+  <si>
+    <t>Year2097</t>
+  </si>
+  <si>
+    <t>Year2098</t>
+  </si>
+  <si>
+    <t>Year2099</t>
+  </si>
+  <si>
+    <t>Year2100</t>
   </si>
 </sst>
 </file>
@@ -94,7 +340,7 @@
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.00%;\-0.00%;&quot;&quot;"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -289,6 +535,14 @@
     <font>
       <b/>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -720,7 +974,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -747,6 +1001,10 @@
     </xf>
     <xf numFmtId="1" fontId="26" fillId="33" borderId="14" xfId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="52">
@@ -1143,82 +1401,82 @@
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="122.73046875" customWidth="1"/>
+    <col min="2" max="2" width="122.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B4" s="7" t="s">
-        <v>8</v>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B5" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B5" s="3" t="s">
-        <v>14</v>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B6" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B6" s="3" t="s">
-        <v>9</v>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B7" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B7" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B9" s="4"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B10" s="4"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A12" s="2" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A13" s="2" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A14" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1236,11 +1494,11 @@
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="10.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:52" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:52" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B1" s="12">
         <v>2000</v>
@@ -1396,9 +1654,9 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:52" s="10" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:52" s="10" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B2" s="9">
         <v>0</v>
@@ -1564,261 +1822,547 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:AI2"/>
+  <dimension ref="A1:CD4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="BE1" workbookViewId="0">
+      <selection activeCell="AG2" sqref="AG2:CD2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1">
-        <v>2017</v>
-      </c>
-      <c r="C1">
-        <v>2018</v>
-      </c>
-      <c r="D1">
-        <v>2019</v>
-      </c>
-      <c r="E1">
-        <v>2020</v>
-      </c>
-      <c r="F1">
-        <v>2021</v>
-      </c>
-      <c r="G1">
-        <v>2022</v>
-      </c>
-      <c r="H1">
-        <v>2023</v>
-      </c>
-      <c r="I1">
-        <v>2024</v>
-      </c>
-      <c r="J1">
-        <v>2025</v>
-      </c>
-      <c r="K1">
-        <v>2026</v>
-      </c>
-      <c r="L1">
-        <v>2027</v>
-      </c>
-      <c r="M1">
-        <v>2028</v>
-      </c>
-      <c r="N1">
-        <v>2029</v>
-      </c>
-      <c r="O1">
-        <v>2030</v>
-      </c>
-      <c r="P1">
-        <v>2031</v>
-      </c>
-      <c r="Q1">
-        <v>2032</v>
-      </c>
-      <c r="R1">
-        <v>2033</v>
-      </c>
-      <c r="S1">
-        <v>2034</v>
-      </c>
-      <c r="T1">
-        <v>2035</v>
-      </c>
-      <c r="U1">
-        <v>2036</v>
-      </c>
-      <c r="V1">
-        <v>2037</v>
-      </c>
-      <c r="W1">
-        <v>2038</v>
-      </c>
-      <c r="X1">
-        <v>2039</v>
-      </c>
-      <c r="Y1">
-        <v>2040</v>
-      </c>
-      <c r="Z1">
-        <v>2041</v>
-      </c>
-      <c r="AA1">
-        <v>2042</v>
-      </c>
-      <c r="AB1">
-        <v>2043</v>
-      </c>
-      <c r="AC1">
-        <v>2044</v>
-      </c>
-      <c r="AD1">
-        <v>2045</v>
-      </c>
-      <c r="AE1">
-        <v>2046</v>
-      </c>
-      <c r="AF1">
-        <v>2047</v>
-      </c>
-      <c r="AG1">
-        <v>2048</v>
-      </c>
-      <c r="AH1">
-        <v>2049</v>
-      </c>
-      <c r="AI1">
-        <v>2050</v>
+    <row r="1" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="A1" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="P1" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q1" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="R1" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="S1" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="T1" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="U1" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="V1" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="W1" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="X1" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y1" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z1" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA1" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB1" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC1" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD1" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="AE1" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF1" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="AG1" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH1" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI1" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="AJ1" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK1" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AL1" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM1" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN1" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO1" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP1" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ1" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="AR1" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="AS1" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="AT1" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU1" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="AV1" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="AW1" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX1" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="AY1" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="AZ1" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="BA1" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="BB1" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="BC1" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="BD1" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="BE1" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="BF1" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="BG1" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="BH1" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI1" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="BJ1" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="BK1" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="BL1" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="BM1" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="BN1" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="BO1" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="BP1" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ1" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="BR1" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="BS1" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="BT1" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="BU1" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="BV1" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="BW1" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="BX1" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="BY1" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="BZ1" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="CA1" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="CB1" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="CC1" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="CD1" s="14" t="s">
+        <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:35" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B2" s="6">
-        <f>'jrc potencia scenario'!S2</f>
-        <v>0.31157935861539099</v>
-      </c>
-      <c r="C2" s="6">
-        <f>'jrc potencia scenario'!T2</f>
-        <v>0.3306420781129758</v>
-      </c>
-      <c r="D2" s="6">
-        <f>'jrc potencia scenario'!U2</f>
-        <v>0.35173630230492003</v>
-      </c>
-      <c r="E2" s="6">
         <f>'jrc potencia scenario'!V2</f>
         <v>0.37362225683235017</v>
       </c>
-      <c r="F2" s="6">
+      <c r="C2" s="6">
         <f>'jrc potencia scenario'!W2</f>
         <v>0.3841225186336788</v>
       </c>
-      <c r="G2" s="6">
+      <c r="D2" s="6">
         <f>'jrc potencia scenario'!X2</f>
         <v>0.3903708710536114</v>
       </c>
-      <c r="H2" s="6">
+      <c r="E2" s="6">
         <f>'jrc potencia scenario'!Y2</f>
         <v>0.40013620296428692</v>
       </c>
-      <c r="I2" s="6">
+      <c r="F2" s="6">
         <f>'jrc potencia scenario'!Z2</f>
         <v>0.41258327127583361</v>
       </c>
-      <c r="J2" s="6">
+      <c r="G2" s="6">
         <f>'jrc potencia scenario'!AA2</f>
         <v>0.42300962122915753</v>
       </c>
-      <c r="K2" s="6">
+      <c r="H2" s="6">
         <f>'jrc potencia scenario'!AB2</f>
         <v>0.43494444652722247</v>
       </c>
-      <c r="L2" s="6">
+      <c r="I2" s="6">
         <f>'jrc potencia scenario'!AC2</f>
         <v>0.44634726546652925</v>
       </c>
-      <c r="M2" s="6">
+      <c r="J2" s="6">
         <f>'jrc potencia scenario'!AD2</f>
         <v>0.45468776112649734</v>
       </c>
-      <c r="N2" s="6">
+      <c r="K2" s="6">
         <f>'jrc potencia scenario'!AE2</f>
         <v>0.46660874524999185</v>
       </c>
-      <c r="O2" s="6">
+      <c r="L2" s="6">
         <f>'jrc potencia scenario'!AF2</f>
         <v>0.48142956448987939</v>
       </c>
-      <c r="P2" s="6">
+      <c r="M2" s="6">
         <f>'jrc potencia scenario'!AG2</f>
         <v>0.49497982569518406</v>
       </c>
-      <c r="Q2" s="6">
+      <c r="N2" s="6">
         <f>'jrc potencia scenario'!AH2</f>
         <v>0.50844330419859818</v>
       </c>
-      <c r="R2" s="6">
+      <c r="O2" s="6">
         <f>'jrc potencia scenario'!AI2</f>
         <v>0.52565844986650323</v>
       </c>
-      <c r="S2" s="6">
+      <c r="P2" s="6">
         <f>'jrc potencia scenario'!AJ2</f>
         <v>0.54404351088112624</v>
       </c>
-      <c r="T2" s="6">
+      <c r="Q2" s="6">
         <f>'jrc potencia scenario'!AK2</f>
         <v>0.56407268915699038</v>
       </c>
-      <c r="U2" s="6">
+      <c r="R2" s="6">
         <f>'jrc potencia scenario'!AL2</f>
         <v>0.58593893616468806</v>
       </c>
-      <c r="V2" s="6">
+      <c r="S2" s="6">
         <f>'jrc potencia scenario'!AM2</f>
         <v>0.60788955860572536</v>
       </c>
-      <c r="W2" s="6">
+      <c r="T2" s="6">
         <f>'jrc potencia scenario'!AN2</f>
         <v>0.62669487816737035</v>
       </c>
-      <c r="X2" s="6">
+      <c r="U2" s="6">
         <f>'jrc potencia scenario'!AO2</f>
         <v>0.64074676826603705</v>
       </c>
-      <c r="Y2" s="6">
+      <c r="V2" s="6">
         <f>'jrc potencia scenario'!AP2</f>
         <v>0.65324194366038479</v>
       </c>
-      <c r="Z2" s="6">
+      <c r="W2" s="6">
         <f>'jrc potencia scenario'!AQ2</f>
         <v>0.66720923308981062</v>
       </c>
-      <c r="AA2" s="6">
+      <c r="X2" s="6">
         <f>'jrc potencia scenario'!AR2</f>
         <v>0.67501331784370533</v>
       </c>
-      <c r="AB2" s="6">
+      <c r="Y2" s="6">
         <f>'jrc potencia scenario'!AS2</f>
         <v>0.68743104195281413</v>
       </c>
-      <c r="AC2" s="6">
+      <c r="Z2" s="6">
         <f>'jrc potencia scenario'!AT2</f>
         <v>0.69364367384730152</v>
       </c>
-      <c r="AD2" s="6">
+      <c r="AA2" s="6">
         <f>'jrc potencia scenario'!AU2</f>
         <v>0.70455518241672821</v>
       </c>
-      <c r="AE2" s="6">
+      <c r="AB2" s="6">
         <f>'jrc potencia scenario'!AV2</f>
         <v>0.71049507913572596</v>
       </c>
-      <c r="AF2" s="6">
+      <c r="AC2" s="6">
         <f>'jrc potencia scenario'!AW2</f>
         <v>0.71526254976367276</v>
       </c>
-      <c r="AG2" s="6">
+      <c r="AD2" s="6">
         <f>'jrc potencia scenario'!AX2</f>
         <v>0.72015149651598476</v>
       </c>
-      <c r="AH2" s="6">
+      <c r="AE2" s="6">
         <f>'jrc potencia scenario'!AY2</f>
         <v>0.72424401737320443</v>
       </c>
-      <c r="AI2" s="6">
+      <c r="AF2" s="6">
         <f>'jrc potencia scenario'!AZ2</f>
         <v>0.73037831195435232</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BA2">
+        <v>0</v>
+      </c>
+      <c r="BB2">
+        <v>0</v>
+      </c>
+      <c r="BC2">
+        <v>0</v>
+      </c>
+      <c r="BD2">
+        <v>0</v>
+      </c>
+      <c r="BE2">
+        <v>0</v>
+      </c>
+      <c r="BF2">
+        <v>0</v>
+      </c>
+      <c r="BG2">
+        <v>0</v>
+      </c>
+      <c r="BH2">
+        <v>0</v>
+      </c>
+      <c r="BI2">
+        <v>0</v>
+      </c>
+      <c r="BJ2">
+        <v>0</v>
+      </c>
+      <c r="BK2">
+        <v>0</v>
+      </c>
+      <c r="BL2">
+        <v>0</v>
+      </c>
+      <c r="BM2">
+        <v>0</v>
+      </c>
+      <c r="BN2">
+        <v>0</v>
+      </c>
+      <c r="BO2">
+        <v>0</v>
+      </c>
+      <c r="BP2">
+        <v>0</v>
+      </c>
+      <c r="BQ2">
+        <v>0</v>
+      </c>
+      <c r="BR2">
+        <v>0</v>
+      </c>
+      <c r="BS2">
+        <v>0</v>
+      </c>
+      <c r="BT2">
+        <v>0</v>
+      </c>
+      <c r="BU2">
+        <v>0</v>
+      </c>
+      <c r="BV2">
+        <v>0</v>
+      </c>
+      <c r="BW2">
+        <v>0</v>
+      </c>
+      <c r="BX2">
+        <v>0</v>
+      </c>
+      <c r="BY2">
+        <v>0</v>
+      </c>
+      <c r="BZ2">
+        <v>0</v>
+      </c>
+      <c r="CA2">
+        <v>0</v>
+      </c>
+      <c r="CB2">
+        <v>0</v>
+      </c>
+      <c r="CC2">
+        <v>0</v>
+      </c>
+      <c r="CD2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:82" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/elec/BRPSPTY/BAU RPS Percentage This Year.xlsx
+++ b/InputData/elec/BRPSPTY/BAU RPS Percentage This Year.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-eu\InputData\elec\BRPSPTY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3934D029-18E0-4706-AC34-19574D5E7356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD274361-BCD0-41D0-94B8-7ECB7B7D1705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="jrc potencia scenario" sheetId="16" r:id="rId2"/>
-    <sheet name="BRPSPTY" sheetId="2" r:id="rId3"/>
+    <sheet name="BRPSPTY" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1" iterateDelta="1.0000000000000001E-5"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
   <si>
     <t>BRPSPTY BAU Renewable Portfolio Std Percentage This Year</t>
   </si>
@@ -53,33 +52,6 @@
     <t>Sources:</t>
   </si>
   <si>
-    <t>https://ec.europa.eu/jrc/en/publication/eur-scientific-and-technical-research-reports/potencia-central-scenario-eu-energy-outlook-2050</t>
-  </si>
-  <si>
-    <t>File: Central_2018_EU28_summary_yearly</t>
-  </si>
-  <si>
-    <t>RES-E [%] - Share of electricity from renewable sources</t>
-  </si>
-  <si>
-    <t>EU28 - Share of energy from renewable sources</t>
-  </si>
-  <si>
-    <t>Tab: RESshare; row: 20</t>
-  </si>
-  <si>
-    <t>JRC POTEnCIA Central Scenario</t>
-  </si>
-  <si>
-    <t>Data attachment</t>
-  </si>
-  <si>
-    <t>For the EU 28 model we use the JRC POTEnCIA Central scenario values.</t>
-  </si>
-  <si>
-    <t>The scenario reflects existing policies and measures that were in place by the end of 2017.</t>
-  </si>
-  <si>
     <t>Note that this variable is populating the Future Year subscript.  It is not a normal time-series data variable.  Therefore, this sheet must include a value for every year that exists in the Future Year subscript (and no other years should be present).</t>
   </si>
   <si>
@@ -330,17 +302,25 @@
   </si>
   <si>
     <t>Year2100</t>
+  </si>
+  <si>
+    <t>Europa</t>
+  </si>
+  <si>
+    <t>https://www.europarl.europa.eu/factsheets/en/sheet/70/renewable-energy</t>
+  </si>
+  <si>
+    <t>Fact Sheets on the European Union</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
-    <numFmt numFmtId="165" formatCode="0.00%;\-0.00%;&quot;&quot;"/>
   </numFmts>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -496,14 +476,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="9" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
@@ -519,27 +491,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="8"/>
-      <color rgb="FF002060"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color theme="1"/>
@@ -548,7 +499,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -728,26 +679,8 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="15">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -898,17 +831,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -971,10 +893,10 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyProtection="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -986,23 +908,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="51"/>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="14" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="25" fillId="34" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" xfId="48" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="14" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="26" fillId="33" borderId="14" xfId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="51"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1395,10 +1302,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1417,415 +1324,66 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B4" s="7" t="s">
-        <v>6</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B5" s="3" t="s">
-        <v>12</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B6" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="B6" s="4"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B7" s="4" t="s">
-        <v>10</v>
+      <c r="A7" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B9" s="4"/>
+      <c r="A9" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B10" s="4"/>
+      <c r="A10" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="A11" s="2"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A12" s="2"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="2"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="A13" s="2"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" xr:uid="{0988C3C3-1CAE-4B5F-A910-8F917B47318C}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4A47AC9-EE67-4904-AF3E-68F6403B2F51}">
-  <dimension ref="A1:AZ2"/>
-  <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:52" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="12">
-        <v>2000</v>
-      </c>
-      <c r="C1" s="12">
-        <v>2001</v>
-      </c>
-      <c r="D1" s="12">
-        <v>2002</v>
-      </c>
-      <c r="E1" s="12">
-        <v>2003</v>
-      </c>
-      <c r="F1" s="12">
-        <v>2004</v>
-      </c>
-      <c r="G1" s="12">
-        <v>2005</v>
-      </c>
-      <c r="H1" s="12">
-        <v>2006</v>
-      </c>
-      <c r="I1" s="12">
-        <v>2007</v>
-      </c>
-      <c r="J1" s="12">
-        <v>2008</v>
-      </c>
-      <c r="K1" s="12">
-        <v>2009</v>
-      </c>
-      <c r="L1" s="12">
-        <v>2010</v>
-      </c>
-      <c r="M1" s="12">
-        <v>2011</v>
-      </c>
-      <c r="N1" s="12">
-        <v>2012</v>
-      </c>
-      <c r="O1" s="12">
-        <v>2013</v>
-      </c>
-      <c r="P1" s="12">
-        <v>2014</v>
-      </c>
-      <c r="Q1" s="12">
-        <v>2015</v>
-      </c>
-      <c r="R1" s="12">
-        <v>2016</v>
-      </c>
-      <c r="S1" s="12">
-        <v>2017</v>
-      </c>
-      <c r="T1" s="12">
-        <v>2018</v>
-      </c>
-      <c r="U1" s="12">
-        <v>2019</v>
-      </c>
-      <c r="V1" s="12">
-        <v>2020</v>
-      </c>
-      <c r="W1" s="12">
-        <v>2021</v>
-      </c>
-      <c r="X1" s="12">
-        <v>2022</v>
-      </c>
-      <c r="Y1" s="12">
-        <v>2023</v>
-      </c>
-      <c r="Z1" s="12">
-        <v>2024</v>
-      </c>
-      <c r="AA1" s="12">
-        <v>2025</v>
-      </c>
-      <c r="AB1" s="12">
-        <v>2026</v>
-      </c>
-      <c r="AC1" s="12">
-        <v>2027</v>
-      </c>
-      <c r="AD1" s="12">
-        <v>2028</v>
-      </c>
-      <c r="AE1" s="12">
-        <v>2029</v>
-      </c>
-      <c r="AF1" s="12">
-        <v>2030</v>
-      </c>
-      <c r="AG1" s="12">
-        <v>2031</v>
-      </c>
-      <c r="AH1" s="12">
-        <v>2032</v>
-      </c>
-      <c r="AI1" s="12">
-        <v>2033</v>
-      </c>
-      <c r="AJ1" s="12">
-        <v>2034</v>
-      </c>
-      <c r="AK1" s="12">
-        <v>2035</v>
-      </c>
-      <c r="AL1" s="12">
-        <v>2036</v>
-      </c>
-      <c r="AM1" s="12">
-        <v>2037</v>
-      </c>
-      <c r="AN1" s="12">
-        <v>2038</v>
-      </c>
-      <c r="AO1" s="12">
-        <v>2039</v>
-      </c>
-      <c r="AP1" s="12">
-        <v>2040</v>
-      </c>
-      <c r="AQ1" s="12">
-        <v>2041</v>
-      </c>
-      <c r="AR1" s="12">
-        <v>2042</v>
-      </c>
-      <c r="AS1" s="12">
-        <v>2043</v>
-      </c>
-      <c r="AT1" s="12">
-        <v>2044</v>
-      </c>
-      <c r="AU1" s="12">
-        <v>2045</v>
-      </c>
-      <c r="AV1" s="12">
-        <v>2046</v>
-      </c>
-      <c r="AW1" s="12">
-        <v>2047</v>
-      </c>
-      <c r="AX1" s="12">
-        <v>2048</v>
-      </c>
-      <c r="AY1" s="12">
-        <v>2049</v>
-      </c>
-      <c r="AZ1" s="12">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="2" spans="1:52" s="10" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="9">
-        <v>0</v>
-      </c>
-      <c r="C2" s="9">
-        <v>0</v>
-      </c>
-      <c r="D2" s="9">
-        <v>0</v>
-      </c>
-      <c r="E2" s="9">
-        <v>0</v>
-      </c>
-      <c r="F2" s="9">
-        <v>0.14402556541115158</v>
-      </c>
-      <c r="G2" s="9">
-        <v>0.14977043359011771</v>
-      </c>
-      <c r="H2" s="9">
-        <v>0.15425058335032385</v>
-      </c>
-      <c r="I2" s="9">
-        <v>0.16168796382962303</v>
-      </c>
-      <c r="J2" s="9">
-        <v>0.1702128743815646</v>
-      </c>
-      <c r="K2" s="9">
-        <v>0.18998744177660079</v>
-      </c>
-      <c r="L2" s="9">
-        <v>0.19737747592560798</v>
-      </c>
-      <c r="M2" s="9">
-        <v>0.21815401701793094</v>
-      </c>
-      <c r="N2" s="9">
-        <v>0.235901421121055</v>
-      </c>
-      <c r="O2" s="9">
-        <v>0.25507650226933565</v>
-      </c>
-      <c r="P2" s="9">
-        <v>0.2762376006000532</v>
-      </c>
-      <c r="Q2" s="9">
-        <v>0.28870007570387179</v>
-      </c>
-      <c r="R2" s="9">
-        <v>0.29698734936288279</v>
-      </c>
-      <c r="S2" s="9">
-        <v>0.31157935861539099</v>
-      </c>
-      <c r="T2" s="9">
-        <v>0.3306420781129758</v>
-      </c>
-      <c r="U2" s="9">
-        <v>0.35173630230492003</v>
-      </c>
-      <c r="V2" s="9">
-        <v>0.37362225683235017</v>
-      </c>
-      <c r="W2" s="9">
-        <v>0.3841225186336788</v>
-      </c>
-      <c r="X2" s="9">
-        <v>0.3903708710536114</v>
-      </c>
-      <c r="Y2" s="9">
-        <v>0.40013620296428692</v>
-      </c>
-      <c r="Z2" s="9">
-        <v>0.41258327127583361</v>
-      </c>
-      <c r="AA2" s="9">
-        <v>0.42300962122915753</v>
-      </c>
-      <c r="AB2" s="9">
-        <v>0.43494444652722247</v>
-      </c>
-      <c r="AC2" s="9">
-        <v>0.44634726546652925</v>
-      </c>
-      <c r="AD2" s="9">
-        <v>0.45468776112649734</v>
-      </c>
-      <c r="AE2" s="9">
-        <v>0.46660874524999185</v>
-      </c>
-      <c r="AF2" s="9">
-        <v>0.48142956448987939</v>
-      </c>
-      <c r="AG2" s="9">
-        <v>0.49497982569518406</v>
-      </c>
-      <c r="AH2" s="9">
-        <v>0.50844330419859818</v>
-      </c>
-      <c r="AI2" s="9">
-        <v>0.52565844986650323</v>
-      </c>
-      <c r="AJ2" s="9">
-        <v>0.54404351088112624</v>
-      </c>
-      <c r="AK2" s="9">
-        <v>0.56407268915699038</v>
-      </c>
-      <c r="AL2" s="9">
-        <v>0.58593893616468806</v>
-      </c>
-      <c r="AM2" s="9">
-        <v>0.60788955860572536</v>
-      </c>
-      <c r="AN2" s="9">
-        <v>0.62669487816737035</v>
-      </c>
-      <c r="AO2" s="9">
-        <v>0.64074676826603705</v>
-      </c>
-      <c r="AP2" s="9">
-        <v>0.65324194366038479</v>
-      </c>
-      <c r="AQ2" s="9">
-        <v>0.66720923308981062</v>
-      </c>
-      <c r="AR2" s="9">
-        <v>0.67501331784370533</v>
-      </c>
-      <c r="AS2" s="9">
-        <v>0.68743104195281413</v>
-      </c>
-      <c r="AT2" s="9">
-        <v>0.69364367384730152</v>
-      </c>
-      <c r="AU2" s="9">
-        <v>0.70455518241672821</v>
-      </c>
-      <c r="AV2" s="9">
-        <v>0.71049507913572596</v>
-      </c>
-      <c r="AW2" s="9">
-        <v>0.71526254976367276</v>
-      </c>
-      <c r="AX2" s="9">
-        <v>0.72015149651598476</v>
-      </c>
-      <c r="AY2" s="9">
-        <v>0.72424401737320443</v>
-      </c>
-      <c r="AZ2" s="9">
-        <v>0.73037831195435232</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:CD4"/>
   <sheetViews>
-    <sheetView topLeftCell="BE1" workbookViewId="0">
-      <selection activeCell="AG2" sqref="AG2:CD2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1834,535 +1392,583 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:82" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="J1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="L1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="M1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="N1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="O1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="P1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="Q1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="R1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="S1" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="T1" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="U1" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="V1" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="W1" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="O1" s="14" t="s">
+      <c r="X1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="P1" s="14" t="s">
+      <c r="Y1" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="Q1" s="14" t="s">
+      <c r="Z1" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="R1" s="14" t="s">
+      <c r="AA1" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="S1" s="14" t="s">
+      <c r="AB1" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="T1" s="14" t="s">
+      <c r="AC1" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="U1" s="14" t="s">
+      <c r="AD1" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="V1" s="14" t="s">
+      <c r="AE1" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="W1" s="14" t="s">
+      <c r="AF1" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="X1" s="14" t="s">
+      <c r="AG1" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="Y1" s="14" t="s">
+      <c r="AH1" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="Z1" s="14" t="s">
+      <c r="AI1" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="AA1" s="14" t="s">
+      <c r="AJ1" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="AB1" s="14" t="s">
+      <c r="AK1" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="AC1" s="14" t="s">
+      <c r="AL1" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="AD1" s="14" t="s">
+      <c r="AM1" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="AE1" s="14" t="s">
+      <c r="AN1" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="AF1" s="14" t="s">
+      <c r="AO1" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="AG1" s="14" t="s">
+      <c r="AP1" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="AH1" s="14" t="s">
+      <c r="AQ1" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="AI1" s="14" t="s">
+      <c r="AR1" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="AJ1" s="14" t="s">
+      <c r="AS1" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="AK1" s="14" t="s">
+      <c r="AT1" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="AL1" s="14" t="s">
+      <c r="AU1" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="AM1" s="14" t="s">
+      <c r="AV1" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="AN1" s="14" t="s">
+      <c r="AW1" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="AO1" s="14" t="s">
+      <c r="AX1" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AP1" s="14" t="s">
+      <c r="AY1" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="AQ1" s="14" t="s">
+      <c r="AZ1" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="AR1" s="14" t="s">
+      <c r="BA1" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="AS1" s="14" t="s">
+      <c r="BB1" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="AT1" s="14" t="s">
+      <c r="BC1" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="AU1" s="14" t="s">
+      <c r="BD1" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="AV1" s="14" t="s">
+      <c r="BE1" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="AW1" s="14" t="s">
+      <c r="BF1" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="AX1" s="14" t="s">
+      <c r="BG1" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="AY1" s="14" t="s">
+      <c r="BH1" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="AZ1" s="14" t="s">
+      <c r="BI1" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="BA1" s="14" t="s">
+      <c r="BJ1" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="BB1" s="14" t="s">
+      <c r="BK1" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="BC1" s="14" t="s">
+      <c r="BL1" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="BD1" s="14" t="s">
+      <c r="BM1" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="BE1" s="14" t="s">
+      <c r="BN1" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="BF1" s="14" t="s">
+      <c r="BO1" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="BG1" s="14" t="s">
+      <c r="BP1" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="BH1" s="14" t="s">
+      <c r="BQ1" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="BI1" s="14" t="s">
+      <c r="BR1" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="BJ1" s="14" t="s">
+      <c r="BS1" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="BK1" s="14" t="s">
+      <c r="BT1" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="BL1" s="14" t="s">
+      <c r="BU1" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="BM1" s="14" t="s">
+      <c r="BV1" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="BN1" s="14" t="s">
+      <c r="BW1" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="BO1" s="14" t="s">
+      <c r="BX1" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="BP1" s="14" t="s">
+      <c r="BY1" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="BQ1" s="14" t="s">
+      <c r="BZ1" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="BR1" s="14" t="s">
+      <c r="CA1" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="BS1" s="14" t="s">
+      <c r="CB1" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="BT1" s="14" t="s">
+      <c r="CC1" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="BU1" s="14" t="s">
+      <c r="CD1" s="9" t="s">
         <v>89</v>
-      </c>
-      <c r="BV1" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="BW1" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="BX1" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="BY1" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="BZ1" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="CA1" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="CB1" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="CC1" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="CD1" s="14" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B2" s="6">
-        <f>'jrc potencia scenario'!V2</f>
-        <v>0.37362225683235017</v>
+        <v>0.2</v>
       </c>
       <c r="C2" s="6">
-        <f>'jrc potencia scenario'!W2</f>
-        <v>0.3841225186336788</v>
+        <f>($L$2-$B$2)/10+B2</f>
+        <v>0.21200000000000002</v>
       </c>
       <c r="D2" s="6">
-        <f>'jrc potencia scenario'!X2</f>
-        <v>0.3903708710536114</v>
+        <f t="shared" ref="D2:K2" si="0">($L$2-$B$2)/10+C2</f>
+        <v>0.22400000000000003</v>
       </c>
       <c r="E2" s="6">
-        <f>'jrc potencia scenario'!Y2</f>
-        <v>0.40013620296428692</v>
+        <f t="shared" si="0"/>
+        <v>0.23600000000000004</v>
       </c>
       <c r="F2" s="6">
-        <f>'jrc potencia scenario'!Z2</f>
-        <v>0.41258327127583361</v>
+        <f t="shared" si="0"/>
+        <v>0.24800000000000005</v>
       </c>
       <c r="G2" s="6">
-        <f>'jrc potencia scenario'!AA2</f>
-        <v>0.42300962122915753</v>
+        <f t="shared" si="0"/>
+        <v>0.26000000000000006</v>
       </c>
       <c r="H2" s="6">
-        <f>'jrc potencia scenario'!AB2</f>
-        <v>0.43494444652722247</v>
+        <f t="shared" si="0"/>
+        <v>0.27200000000000008</v>
       </c>
       <c r="I2" s="6">
-        <f>'jrc potencia scenario'!AC2</f>
-        <v>0.44634726546652925</v>
+        <f t="shared" si="0"/>
+        <v>0.28400000000000009</v>
       </c>
       <c r="J2" s="6">
-        <f>'jrc potencia scenario'!AD2</f>
-        <v>0.45468776112649734</v>
+        <f t="shared" si="0"/>
+        <v>0.2960000000000001</v>
       </c>
       <c r="K2" s="6">
-        <f>'jrc potencia scenario'!AE2</f>
-        <v>0.46660874524999185</v>
+        <f t="shared" si="0"/>
+        <v>0.30800000000000011</v>
       </c>
       <c r="L2" s="6">
-        <f>'jrc potencia scenario'!AF2</f>
-        <v>0.48142956448987939</v>
+        <v>0.32</v>
       </c>
       <c r="M2" s="6">
-        <f>'jrc potencia scenario'!AG2</f>
-        <v>0.49497982569518406</v>
+        <f>$L$2</f>
+        <v>0.32</v>
       </c>
       <c r="N2" s="6">
-        <f>'jrc potencia scenario'!AH2</f>
-        <v>0.50844330419859818</v>
+        <f t="shared" ref="N2:BY2" si="1">$L$2</f>
+        <v>0.32</v>
       </c>
       <c r="O2" s="6">
-        <f>'jrc potencia scenario'!AI2</f>
-        <v>0.52565844986650323</v>
+        <f t="shared" si="1"/>
+        <v>0.32</v>
       </c>
       <c r="P2" s="6">
-        <f>'jrc potencia scenario'!AJ2</f>
-        <v>0.54404351088112624</v>
+        <f t="shared" si="1"/>
+        <v>0.32</v>
       </c>
       <c r="Q2" s="6">
-        <f>'jrc potencia scenario'!AK2</f>
-        <v>0.56407268915699038</v>
+        <f t="shared" si="1"/>
+        <v>0.32</v>
       </c>
       <c r="R2" s="6">
-        <f>'jrc potencia scenario'!AL2</f>
-        <v>0.58593893616468806</v>
+        <f t="shared" si="1"/>
+        <v>0.32</v>
       </c>
       <c r="S2" s="6">
-        <f>'jrc potencia scenario'!AM2</f>
-        <v>0.60788955860572536</v>
+        <f t="shared" si="1"/>
+        <v>0.32</v>
       </c>
       <c r="T2" s="6">
-        <f>'jrc potencia scenario'!AN2</f>
-        <v>0.62669487816737035</v>
+        <f t="shared" si="1"/>
+        <v>0.32</v>
       </c>
       <c r="U2" s="6">
-        <f>'jrc potencia scenario'!AO2</f>
-        <v>0.64074676826603705</v>
+        <f t="shared" si="1"/>
+        <v>0.32</v>
       </c>
       <c r="V2" s="6">
-        <f>'jrc potencia scenario'!AP2</f>
-        <v>0.65324194366038479</v>
+        <f t="shared" si="1"/>
+        <v>0.32</v>
       </c>
       <c r="W2" s="6">
-        <f>'jrc potencia scenario'!AQ2</f>
-        <v>0.66720923308981062</v>
+        <f t="shared" si="1"/>
+        <v>0.32</v>
       </c>
       <c r="X2" s="6">
-        <f>'jrc potencia scenario'!AR2</f>
-        <v>0.67501331784370533</v>
+        <f t="shared" si="1"/>
+        <v>0.32</v>
       </c>
       <c r="Y2" s="6">
-        <f>'jrc potencia scenario'!AS2</f>
-        <v>0.68743104195281413</v>
+        <f t="shared" si="1"/>
+        <v>0.32</v>
       </c>
       <c r="Z2" s="6">
-        <f>'jrc potencia scenario'!AT2</f>
-        <v>0.69364367384730152</v>
+        <f t="shared" si="1"/>
+        <v>0.32</v>
       </c>
       <c r="AA2" s="6">
-        <f>'jrc potencia scenario'!AU2</f>
-        <v>0.70455518241672821</v>
+        <f t="shared" si="1"/>
+        <v>0.32</v>
       </c>
       <c r="AB2" s="6">
-        <f>'jrc potencia scenario'!AV2</f>
-        <v>0.71049507913572596</v>
+        <f t="shared" si="1"/>
+        <v>0.32</v>
       </c>
       <c r="AC2" s="6">
-        <f>'jrc potencia scenario'!AW2</f>
-        <v>0.71526254976367276</v>
+        <f t="shared" si="1"/>
+        <v>0.32</v>
       </c>
       <c r="AD2" s="6">
-        <f>'jrc potencia scenario'!AX2</f>
-        <v>0.72015149651598476</v>
+        <f t="shared" si="1"/>
+        <v>0.32</v>
       </c>
       <c r="AE2" s="6">
-        <f>'jrc potencia scenario'!AY2</f>
-        <v>0.72424401737320443</v>
+        <f t="shared" si="1"/>
+        <v>0.32</v>
       </c>
       <c r="AF2" s="6">
-        <f>'jrc potencia scenario'!AZ2</f>
-        <v>0.73037831195435232</v>
-      </c>
-      <c r="AG2">
-        <v>0</v>
-      </c>
-      <c r="AH2">
-        <v>0</v>
-      </c>
-      <c r="AI2">
-        <v>0</v>
-      </c>
-      <c r="AJ2">
-        <v>0</v>
-      </c>
-      <c r="AK2">
-        <v>0</v>
-      </c>
-      <c r="AL2">
-        <v>0</v>
-      </c>
-      <c r="AM2">
-        <v>0</v>
-      </c>
-      <c r="AN2">
-        <v>0</v>
-      </c>
-      <c r="AO2">
-        <v>0</v>
-      </c>
-      <c r="AP2">
-        <v>0</v>
-      </c>
-      <c r="AQ2">
-        <v>0</v>
-      </c>
-      <c r="AR2">
-        <v>0</v>
-      </c>
-      <c r="AS2">
-        <v>0</v>
-      </c>
-      <c r="AT2">
-        <v>0</v>
-      </c>
-      <c r="AU2">
-        <v>0</v>
-      </c>
-      <c r="AV2">
-        <v>0</v>
-      </c>
-      <c r="AW2">
-        <v>0</v>
-      </c>
-      <c r="AX2">
-        <v>0</v>
-      </c>
-      <c r="AY2">
-        <v>0</v>
-      </c>
-      <c r="AZ2">
-        <v>0</v>
-      </c>
-      <c r="BA2">
-        <v>0</v>
-      </c>
-      <c r="BB2">
-        <v>0</v>
-      </c>
-      <c r="BC2">
-        <v>0</v>
-      </c>
-      <c r="BD2">
-        <v>0</v>
-      </c>
-      <c r="BE2">
-        <v>0</v>
-      </c>
-      <c r="BF2">
-        <v>0</v>
-      </c>
-      <c r="BG2">
-        <v>0</v>
-      </c>
-      <c r="BH2">
-        <v>0</v>
-      </c>
-      <c r="BI2">
-        <v>0</v>
-      </c>
-      <c r="BJ2">
-        <v>0</v>
-      </c>
-      <c r="BK2">
-        <v>0</v>
-      </c>
-      <c r="BL2">
-        <v>0</v>
-      </c>
-      <c r="BM2">
-        <v>0</v>
-      </c>
-      <c r="BN2">
-        <v>0</v>
-      </c>
-      <c r="BO2">
-        <v>0</v>
-      </c>
-      <c r="BP2">
-        <v>0</v>
-      </c>
-      <c r="BQ2">
-        <v>0</v>
-      </c>
-      <c r="BR2">
-        <v>0</v>
-      </c>
-      <c r="BS2">
-        <v>0</v>
-      </c>
-      <c r="BT2">
-        <v>0</v>
-      </c>
-      <c r="BU2">
-        <v>0</v>
-      </c>
-      <c r="BV2">
-        <v>0</v>
-      </c>
-      <c r="BW2">
-        <v>0</v>
-      </c>
-      <c r="BX2">
-        <v>0</v>
-      </c>
-      <c r="BY2">
-        <v>0</v>
-      </c>
-      <c r="BZ2">
-        <v>0</v>
-      </c>
-      <c r="CA2">
-        <v>0</v>
-      </c>
-      <c r="CB2">
-        <v>0</v>
-      </c>
-      <c r="CC2">
-        <v>0</v>
-      </c>
-      <c r="CD2">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.32</v>
+      </c>
+      <c r="AG2" s="6">
+        <f t="shared" si="1"/>
+        <v>0.32</v>
+      </c>
+      <c r="AH2" s="6">
+        <f t="shared" si="1"/>
+        <v>0.32</v>
+      </c>
+      <c r="AI2" s="6">
+        <f t="shared" si="1"/>
+        <v>0.32</v>
+      </c>
+      <c r="AJ2" s="6">
+        <f t="shared" si="1"/>
+        <v>0.32</v>
+      </c>
+      <c r="AK2" s="6">
+        <f t="shared" si="1"/>
+        <v>0.32</v>
+      </c>
+      <c r="AL2" s="6">
+        <f t="shared" si="1"/>
+        <v>0.32</v>
+      </c>
+      <c r="AM2" s="6">
+        <f t="shared" si="1"/>
+        <v>0.32</v>
+      </c>
+      <c r="AN2" s="6">
+        <f t="shared" si="1"/>
+        <v>0.32</v>
+      </c>
+      <c r="AO2" s="6">
+        <f t="shared" si="1"/>
+        <v>0.32</v>
+      </c>
+      <c r="AP2" s="6">
+        <f t="shared" si="1"/>
+        <v>0.32</v>
+      </c>
+      <c r="AQ2" s="6">
+        <f t="shared" si="1"/>
+        <v>0.32</v>
+      </c>
+      <c r="AR2" s="6">
+        <f t="shared" si="1"/>
+        <v>0.32</v>
+      </c>
+      <c r="AS2" s="6">
+        <f t="shared" si="1"/>
+        <v>0.32</v>
+      </c>
+      <c r="AT2" s="6">
+        <f t="shared" si="1"/>
+        <v>0.32</v>
+      </c>
+      <c r="AU2" s="6">
+        <f t="shared" si="1"/>
+        <v>0.32</v>
+      </c>
+      <c r="AV2" s="6">
+        <f t="shared" si="1"/>
+        <v>0.32</v>
+      </c>
+      <c r="AW2" s="6">
+        <f t="shared" si="1"/>
+        <v>0.32</v>
+      </c>
+      <c r="AX2" s="6">
+        <f t="shared" si="1"/>
+        <v>0.32</v>
+      </c>
+      <c r="AY2" s="6">
+        <f t="shared" si="1"/>
+        <v>0.32</v>
+      </c>
+      <c r="AZ2" s="6">
+        <f t="shared" si="1"/>
+        <v>0.32</v>
+      </c>
+      <c r="BA2" s="6">
+        <f t="shared" si="1"/>
+        <v>0.32</v>
+      </c>
+      <c r="BB2" s="6">
+        <f t="shared" si="1"/>
+        <v>0.32</v>
+      </c>
+      <c r="BC2" s="6">
+        <f t="shared" si="1"/>
+        <v>0.32</v>
+      </c>
+      <c r="BD2" s="6">
+        <f t="shared" si="1"/>
+        <v>0.32</v>
+      </c>
+      <c r="BE2" s="6">
+        <f t="shared" si="1"/>
+        <v>0.32</v>
+      </c>
+      <c r="BF2" s="6">
+        <f t="shared" si="1"/>
+        <v>0.32</v>
+      </c>
+      <c r="BG2" s="6">
+        <f t="shared" si="1"/>
+        <v>0.32</v>
+      </c>
+      <c r="BH2" s="6">
+        <f t="shared" si="1"/>
+        <v>0.32</v>
+      </c>
+      <c r="BI2" s="6">
+        <f t="shared" si="1"/>
+        <v>0.32</v>
+      </c>
+      <c r="BJ2" s="6">
+        <f t="shared" si="1"/>
+        <v>0.32</v>
+      </c>
+      <c r="BK2" s="6">
+        <f t="shared" si="1"/>
+        <v>0.32</v>
+      </c>
+      <c r="BL2" s="6">
+        <f t="shared" si="1"/>
+        <v>0.32</v>
+      </c>
+      <c r="BM2" s="6">
+        <f t="shared" si="1"/>
+        <v>0.32</v>
+      </c>
+      <c r="BN2" s="6">
+        <f t="shared" si="1"/>
+        <v>0.32</v>
+      </c>
+      <c r="BO2" s="6">
+        <f t="shared" si="1"/>
+        <v>0.32</v>
+      </c>
+      <c r="BP2" s="6">
+        <f t="shared" si="1"/>
+        <v>0.32</v>
+      </c>
+      <c r="BQ2" s="6">
+        <f t="shared" si="1"/>
+        <v>0.32</v>
+      </c>
+      <c r="BR2" s="6">
+        <f t="shared" si="1"/>
+        <v>0.32</v>
+      </c>
+      <c r="BS2" s="6">
+        <f t="shared" si="1"/>
+        <v>0.32</v>
+      </c>
+      <c r="BT2" s="6">
+        <f t="shared" si="1"/>
+        <v>0.32</v>
+      </c>
+      <c r="BU2" s="6">
+        <f t="shared" si="1"/>
+        <v>0.32</v>
+      </c>
+      <c r="BV2" s="6">
+        <f t="shared" si="1"/>
+        <v>0.32</v>
+      </c>
+      <c r="BW2" s="6">
+        <f t="shared" si="1"/>
+        <v>0.32</v>
+      </c>
+      <c r="BX2" s="6">
+        <f t="shared" si="1"/>
+        <v>0.32</v>
+      </c>
+      <c r="BY2" s="6">
+        <f t="shared" si="1"/>
+        <v>0.32</v>
+      </c>
+      <c r="BZ2" s="6">
+        <f t="shared" ref="BZ2:CD2" si="2">$L$2</f>
+        <v>0.32</v>
+      </c>
+      <c r="CA2" s="6">
+        <f t="shared" si="2"/>
+        <v>0.32</v>
+      </c>
+      <c r="CB2" s="6">
+        <f t="shared" si="2"/>
+        <v>0.32</v>
+      </c>
+      <c r="CC2" s="6">
+        <f t="shared" si="2"/>
+        <v>0.32</v>
+      </c>
+      <c r="CD2" s="6">
+        <f t="shared" si="2"/>
+        <v>0.32</v>
       </c>
     </row>
     <row r="4" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/elec/BRPSPTY/BAU RPS Percentage This Year.xlsx
+++ b/InputData/elec/BRPSPTY/BAU RPS Percentage This Year.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mary Francis Swint\Vensim\eps-eu\InputData\elec\BRPSPTY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rachel Goldstein\Dropbox (Energy Innovation)\Desktop\Vensim files from GitHub\EPS EU\InputData\elec\BRPSPTY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{294DB4DF-C685-4E79-BE9E-BB08B4DF9FF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{138CD4E2-9B22-43E1-AF50-7DA6A6CB7E9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5780" yWindow="2240" windowWidth="14400" windowHeight="8170" firstSheet="2" activeTab="5" xr2:uid="{8223E8A3-2731-4425-BB39-7296F4257534}"/>
+    <workbookView xWindow="615" yWindow="2280" windowWidth="22755" windowHeight="13815" firstSheet="2" activeTab="5" xr2:uid="{8223E8A3-2731-4425-BB39-7296F4257534}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="8" r:id="rId1"/>
@@ -6330,22 +6330,22 @@
       <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="10.81640625" style="79"/>
-    <col min="3" max="3" width="45.26953125" style="79" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.81640625" style="79"/>
+    <col min="1" max="2" width="10.85546875" style="79"/>
+    <col min="3" max="3" width="45.28515625" style="79" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.85546875" style="79"/>
   </cols>
   <sheetData>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="80" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="81"/>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="81" t="s">
         <v>1</v>
       </c>
@@ -6356,7 +6356,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="81"/>
       <c r="C14" s="81" t="s">
         <v>4</v>
@@ -6365,7 +6365,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="81"/>
       <c r="C15" s="81" t="s">
         <v>6</v>
@@ -6374,7 +6374,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="81"/>
       <c r="C16" s="81" t="s">
         <v>6</v>
@@ -6383,90 +6383,90 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="81"/>
       <c r="C17" s="82"/>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="81" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="104" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="83"/>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="104" t="s">
         <v>11</v>
       </c>
       <c r="C21" s="83"/>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="104" t="s">
         <v>12</v>
       </c>
       <c r="C22" s="83"/>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="104"/>
       <c r="C23" s="83"/>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="104" t="s">
         <v>13</v>
       </c>
       <c r="C24" s="83"/>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="104" t="s">
         <v>14</v>
       </c>
       <c r="C25" s="83"/>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="104" t="s">
         <v>15</v>
       </c>
       <c r="C26" s="83"/>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" s="104"/>
       <c r="C27" s="83"/>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" s="104" t="s">
         <v>16</v>
       </c>
       <c r="C28" s="83"/>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" s="104" t="s">
         <v>17</v>
       </c>
       <c r="C29" s="83"/>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B30" s="99" t="s">
         <v>18</v>
       </c>
       <c r="C30" s="83"/>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B31" s="146" t="s">
         <v>19</v>
       </c>
       <c r="C31" s="83"/>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B32" s="146" t="s">
         <v>20</v>
       </c>
       <c r="C32" s="83"/>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" s="83"/>
       <c r="C33" s="83"/>
     </row>
@@ -6490,19 +6490,19 @@
       <selection activeCell="X19" sqref="X19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="27.81640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="20" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="18.453125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="96.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="20" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="96.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="108" t="s">
         <v>21</v>
       </c>
@@ -6529,7 +6529,7 @@
       <c r="U1" s="109"/>
       <c r="V1" s="118"/>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="113" t="s">
         <v>23</v>
       </c>
@@ -6540,7 +6540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>24</v>
       </c>
@@ -6605,7 +6605,7 @@
       <c r="AA3" s="40"/>
       <c r="AB3" s="40"/>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>26</v>
       </c>
@@ -6667,7 +6667,7 @@
       <c r="AA4" s="40"/>
       <c r="AB4" s="40"/>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>29</v>
       </c>
@@ -6729,7 +6729,7 @@
       <c r="AA5" s="42"/>
       <c r="AB5" s="42"/>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>32</v>
       </c>
@@ -6791,7 +6791,7 @@
       <c r="AA6" s="42"/>
       <c r="AB6" s="42"/>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>35</v>
       </c>
@@ -6848,7 +6848,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>38</v>
       </c>
@@ -6902,7 +6902,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
       <c r="B9" s="105">
         <v>2021</v>
@@ -6919,7 +6919,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>41</v>
       </c>
@@ -6936,7 +6936,7 @@
       <c r="V10" s="12"/>
       <c r="X10" s="71"/>
     </row>
-    <row r="11" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>43</v>
       </c>
@@ -6951,7 +6951,7 @@
       <c r="V11" s="12"/>
       <c r="X11" s="71"/>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>44</v>
       </c>
@@ -6990,7 +6990,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
       <c r="L13" s="12"/>
       <c r="N13" s="25" t="s">
@@ -7029,7 +7029,7 @@
         <v>849.1525652317888</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -7071,7 +7071,7 @@
         <v>275.41521509782802</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="113" t="s">
         <v>47</v>
       </c>
@@ -7115,7 +7115,7 @@
         <v>810.26050207252831</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>45</v>
       </c>
@@ -7161,7 +7161,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>46</v>
       </c>
@@ -7201,7 +7201,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
         <v>35</v>
       </c>
@@ -7241,7 +7241,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>38</v>
       </c>
@@ -7289,7 +7289,7 @@
         <v>2337.8282824021453</v>
       </c>
     </row>
-    <row r="20" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>41</v>
       </c>
@@ -7335,7 +7335,7 @@
         <v>3600.9504270677526</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>43</v>
       </c>
@@ -7356,7 +7356,7 @@
       <c r="U21" s="60"/>
       <c r="V21" s="60"/>
     </row>
-    <row r="22" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
         <v>44</v>
       </c>
@@ -7368,7 +7368,7 @@
       </c>
       <c r="L22" s="12"/>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>48</v>
       </c>
@@ -7391,7 +7391,7 @@
       <c r="U23" s="118"/>
       <c r="V23" s="138"/>
     </row>
-    <row r="24" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>49</v>
       </c>
@@ -7406,7 +7406,7 @@
       <c r="O24" s="42"/>
       <c r="U24" s="12"/>
     </row>
-    <row r="25" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
       <c r="L25" s="12"/>
       <c r="N25" s="130" t="s">
@@ -7415,7 +7415,7 @@
       <c r="O25" s="40"/>
       <c r="U25" s="12"/>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="25" t="s">
         <v>51</v>
       </c>
@@ -7472,7 +7472,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>32</v>
       </c>
@@ -7518,7 +7518,7 @@
       </c>
       <c r="U27" s="12"/>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>35</v>
       </c>
@@ -7564,7 +7564,7 @@
       </c>
       <c r="U28" s="12"/>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>38</v>
       </c>
@@ -7637,7 +7637,7 @@
         <v>513894.97433035483</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>41</v>
       </c>
@@ -7704,7 +7704,7 @@
         <v>95023.201612612349</v>
       </c>
     </row>
-    <row r="31" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
         <v>43</v>
       </c>
@@ -7771,7 +7771,7 @@
         <v>412615.47339026764</v>
       </c>
     </row>
-    <row r="32" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
         <v>44</v>
       </c>
@@ -7809,7 +7809,7 @@
       <c r="N32" s="11"/>
       <c r="U32" s="12"/>
     </row>
-    <row r="33" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="11"/>
       <c r="L33" s="12"/>
       <c r="N33" s="130" t="s">
@@ -7818,7 +7818,7 @@
       <c r="O33" s="40"/>
       <c r="U33" s="12"/>
     </row>
-    <row r="34" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="115" t="s">
         <v>54</v>
       </c>
@@ -7858,7 +7858,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="11"/>
       <c r="L35" s="12"/>
       <c r="N35" s="11" t="s">
@@ -7866,7 +7866,7 @@
       </c>
       <c r="U35" s="12"/>
     </row>
-    <row r="36" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="141" t="s">
         <v>55</v>
       </c>
@@ -7908,7 +7908,7 @@
       </c>
       <c r="U36" s="12"/>
     </row>
-    <row r="37" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="147" t="s">
         <v>56</v>
       </c>
@@ -7984,7 +7984,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" s="139" t="s">
         <v>7</v>
       </c>
@@ -8048,7 +8048,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="39" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="139" t="s">
         <v>53</v>
       </c>
@@ -8106,7 +8106,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="40" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="140" t="s">
         <v>47</v>
       </c>
@@ -8147,7 +8147,7 @@
       <c r="U40" s="72"/>
       <c r="V40" s="72"/>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>58</v>
       </c>
@@ -8181,21 +8181,21 @@
       <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.1796875" customWidth="1"/>
-    <col min="3" max="3" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.1796875" customWidth="1"/>
-    <col min="13" max="14" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="37.81640625" customWidth="1"/>
-    <col min="17" max="18" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="21" max="24" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" customWidth="1"/>
+    <col min="13" max="14" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="37.85546875" customWidth="1"/>
+    <col min="17" max="18" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="24" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>59</v>
       </c>
@@ -8206,7 +8206,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>62</v>
       </c>
@@ -8238,7 +8238,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="24">
         <v>2012</v>
@@ -8307,7 +8307,7 @@
         <v>710642</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>63</v>
       </c>
@@ -8374,7 +8374,7 @@
         <v>2321</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>64</v>
       </c>
@@ -8449,7 +8449,7 @@
         <v>712963</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>65</v>
       </c>
@@ -8522,7 +8522,7 @@
         <v>85545</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K7" s="1"/>
       <c r="L7" s="18"/>
       <c r="M7" s="18"/>
@@ -8561,7 +8561,7 @@
         <v>396365</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="K8" s="1"/>
       <c r="L8" s="18"/>
       <c r="M8" s="18"/>
@@ -8590,7 +8590,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -8631,7 +8631,7 @@
         <v>91485</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="P10" s="11" t="s">
         <v>35</v>
       </c>
@@ -8660,7 +8660,7 @@
         <v>12285</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="P11" s="7" t="s">
         <v>38</v>
       </c>
@@ -8691,7 +8691,7 @@
         <v>37320</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
       <c r="E12" s="19"/>
@@ -8711,7 +8711,7 @@
       <c r="W12" s="4"/>
       <c r="X12" s="4"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>67</v>
       </c>
@@ -8760,7 +8760,7 @@
       <c r="W13" s="60"/>
       <c r="X13" s="60"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>26</v>
       </c>
@@ -8814,7 +8814,7 @@
       <c r="W14" s="60"/>
       <c r="X14" s="60"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>64</v>
       </c>
@@ -8868,7 +8868,7 @@
       <c r="W15" s="60"/>
       <c r="X15" s="60"/>
     </row>
-    <row r="16" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>65</v>
       </c>
@@ -8923,7 +8923,7 @@
       <c r="W16" s="60"/>
       <c r="X16" s="60"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="J17" s="78" t="s">
         <v>69</v>
       </c>
@@ -8937,7 +8937,7 @@
       <c r="W17" s="60"/>
       <c r="X17" s="60"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="P18" s="4"/>
@@ -8950,7 +8950,7 @@
       <c r="W18" s="60"/>
       <c r="X18" s="60"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="71"/>
       <c r="B19" s="17"/>
       <c r="C19" s="17"/>
@@ -8959,7 +8959,7 @@
       <c r="F19" s="18"/>
       <c r="P19" s="4"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
       <c r="D20" s="18"/>
@@ -8967,28 +8967,28 @@
       <c r="F20" s="18"/>
       <c r="P20" s="4"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="18"/>
       <c r="E21" s="18"/>
       <c r="F21" s="18"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="18"/>
       <c r="E22" s="18"/>
       <c r="F22" s="18"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="18"/>
       <c r="E23" s="18"/>
       <c r="F23" s="18"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" s="71"/>
       <c r="P26" s="84"/>
       <c r="Q26" s="84"/>
@@ -8998,7 +8998,7 @@
       <c r="U26" s="84"/>
       <c r="V26" s="84"/>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" s="71"/>
       <c r="P27" s="84"/>
       <c r="Q27" s="85"/>
@@ -9008,7 +9008,7 @@
       <c r="U27" s="85"/>
       <c r="V27" s="85"/>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="P28" s="84"/>
       <c r="Q28" s="85"/>
       <c r="R28" s="85"/>
@@ -9017,7 +9017,7 @@
       <c r="U28" s="85"/>
       <c r="V28" s="85"/>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="P29" s="84"/>
       <c r="Q29" s="85"/>
       <c r="R29" s="85"/>
@@ -9026,7 +9026,7 @@
       <c r="U29" s="85"/>
       <c r="V29" s="85"/>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="P30" s="84"/>
       <c r="Q30" s="85"/>
       <c r="R30" s="85"/>
@@ -9035,7 +9035,7 @@
       <c r="U30" s="85"/>
       <c r="V30" s="85"/>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="P31" s="84"/>
       <c r="Q31" s="85"/>
       <c r="R31" s="85"/>
@@ -9044,7 +9044,7 @@
       <c r="U31" s="85"/>
       <c r="V31" s="85"/>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="P32" s="84"/>
       <c r="Q32" s="85"/>
       <c r="R32" s="85"/>
@@ -9053,7 +9053,7 @@
       <c r="U32" s="85"/>
       <c r="V32" s="85"/>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="P33" s="84"/>
       <c r="Q33" s="85"/>
       <c r="R33" s="85"/>
@@ -9062,7 +9062,7 @@
       <c r="U33" s="85"/>
       <c r="V33" s="85"/>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -9075,7 +9075,7 @@
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="F35" s="27"/>
       <c r="G35" s="27"/>
@@ -9084,7 +9084,7 @@
       <c r="J35" s="27"/>
       <c r="K35" s="27"/>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="F36" s="27"/>
       <c r="G36" s="27"/>
@@ -9093,7 +9093,7 @@
       <c r="J36" s="27"/>
       <c r="K36" s="27"/>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="F37" s="27"/>
       <c r="G37" s="27"/>
@@ -9102,7 +9102,7 @@
       <c r="J37" s="27"/>
       <c r="K37" s="27"/>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="F38" s="27"/>
       <c r="G38" s="27"/>
@@ -9111,7 +9111,7 @@
       <c r="J38" s="27"/>
       <c r="K38" s="27"/>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="F39" s="27"/>
       <c r="G39" s="27"/>
@@ -9120,7 +9120,7 @@
       <c r="J39" s="27"/>
       <c r="K39" s="27"/>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
@@ -9145,12 +9145,12 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="29"/>
       <c r="B1" s="29"/>
       <c r="C1" s="29"/>
@@ -9160,7 +9160,7 @@
       <c r="G1" s="29"/>
       <c r="H1" s="29"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="30"/>
       <c r="B2" s="31">
         <v>2020</v>
@@ -9184,7 +9184,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
         <v>70</v>
       </c>
@@ -9196,7 +9196,7 @@
       <c r="G3" s="34"/>
       <c r="H3" s="35"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="36" t="s">
         <v>71</v>
       </c>
@@ -9222,7 +9222,7 @@
         <v>3420676.8662906797</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="52" t="s">
         <v>72</v>
       </c>
@@ -9252,7 +9252,7 @@
         <v>3.0285886950903902E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="39" t="s">
         <v>73</v>
       </c>
@@ -9278,7 +9278,7 @@
         <v>2542270.2940083593</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="44" t="s">
         <v>74</v>
       </c>
@@ -9304,7 +9304,7 @@
         <v>207321.14157649977</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="44" t="s">
         <v>75</v>
       </c>
@@ -9330,7 +9330,7 @@
         <v>368186.56193746976</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="45" t="s">
         <v>76</v>
       </c>
@@ -9356,7 +9356,7 @@
         <v>190933.72364244243</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="45" t="s">
         <v>77</v>
       </c>
@@ -9382,7 +9382,7 @@
         <v>177252.83829502721</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="44" t="s">
         <v>78</v>
       </c>
@@ -9408,7 +9408,7 @@
         <v>1350438.0753462599</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="45" t="s">
         <v>65</v>
       </c>
@@ -9434,7 +9434,7 @@
         <v>990669.90900849062</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="45" t="s">
         <v>64</v>
       </c>
@@ -9460,7 +9460,7 @@
         <v>359768.16633776913</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="44" t="s">
         <v>79</v>
       </c>
@@ -9486,7 +9486,7 @@
         <v>599657.36191915383</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="44" t="s">
         <v>80</v>
       </c>
@@ -9512,7 +9512,7 @@
         <v>16667.153228975938</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="46"/>
       <c r="B16" s="40"/>
       <c r="C16" s="40"/>
@@ -9522,7 +9522,7 @@
       <c r="G16" s="40"/>
       <c r="H16" s="41"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="46"/>
       <c r="B17" s="40"/>
       <c r="C17" s="40"/>
@@ -9532,7 +9532,7 @@
       <c r="G17" s="40"/>
       <c r="H17" s="41"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="36" t="s">
         <v>81</v>
       </c>
@@ -9558,7 +9558,7 @@
         <v>1386347.2096200143</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="39" t="s">
         <v>73</v>
       </c>
@@ -9584,7 +9584,7 @@
         <v>1213108.7488916744</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="44" t="s">
         <v>74</v>
       </c>
@@ -9610,7 +9610,7 @@
         <v>55588.655806831353</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="44" t="s">
         <v>82</v>
       </c>
@@ -9636,7 +9636,7 @@
         <v>133135.17602102979</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="45" t="s">
         <v>76</v>
       </c>
@@ -9662,7 +9662,7 @@
         <v>89864.065417295002</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="45" t="s">
         <v>77</v>
       </c>
@@ -9688,7 +9688,7 @@
         <v>43271.110603734829</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="44" t="s">
         <v>78</v>
       </c>
@@ -9714,7 +9714,7 @@
         <v>507638.67500287993</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="45" t="s">
         <v>65</v>
       </c>
@@ -9740,7 +9740,7 @@
         <v>412615.47339026764</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="45" t="s">
         <v>64</v>
       </c>
@@ -9766,7 +9766,7 @@
         <v>95023.201612612349</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="44" t="s">
         <v>79</v>
       </c>
@@ -9792,7 +9792,7 @@
         <v>513894.97433035483</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="47" t="s">
         <v>83</v>
       </c>
@@ -9818,8 +9818,8 @@
         <v>2851.2677305788761</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>51</v>
       </c>
@@ -9845,7 +9845,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="45" t="s">
         <v>65</v>
       </c>
@@ -9878,7 +9878,7 @@
         <v>2.4009519101855803</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="45" t="s">
         <v>64</v>
       </c>
@@ -9911,7 +9911,7 @@
         <v>3.7861086580145011</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="47" t="s">
         <v>79</v>
       </c>
@@ -9944,7 +9944,7 @@
         <v>1.1668869941772715</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>84</v>
       </c>
@@ -9970,7 +9970,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -10016,12 +10016,12 @@
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="29"/>
       <c r="B1" s="29"/>
       <c r="C1" s="29"/>
@@ -10030,7 +10030,7 @@
       <c r="F1" s="29"/>
       <c r="G1" s="29"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="68"/>
       <c r="B2" s="65">
         <v>2005</v>
@@ -10051,7 +10051,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="64" t="s">
         <v>70</v>
       </c>
@@ -10062,7 +10062,7 @@
       <c r="F3" s="34"/>
       <c r="G3" s="34"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="67" t="s">
         <v>71</v>
       </c>
@@ -10085,7 +10085,7 @@
         <v>3153537.5898405975</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="63" t="s">
         <v>85</v>
       </c>
@@ -10108,7 +10108,7 @@
         <v>515398.0748518536</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="63" t="s">
         <v>73</v>
       </c>
@@ -10131,7 +10131,7 @@
         <v>2050530.87578808</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="56" t="s">
         <v>74</v>
       </c>
@@ -10154,7 +10154,7 @@
         <v>167171.97368861208</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="56" t="s">
         <v>75</v>
       </c>
@@ -10177,7 +10177,7 @@
         <v>361836.01941072679</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="57" t="s">
         <v>76</v>
       </c>
@@ -10200,7 +10200,7 @@
         <v>190294.89092214324</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="57" t="s">
         <v>77</v>
       </c>
@@ -10223,7 +10223,7 @@
         <v>171541.12848858361</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="56" t="s">
         <v>78</v>
       </c>
@@ -10246,7 +10246,7 @@
         <v>1078584.1832632506</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="57" t="s">
         <v>65</v>
       </c>
@@ -10269,7 +10269,7 @@
         <v>830898.54292468261</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="57" t="s">
         <v>64</v>
       </c>
@@ -10292,7 +10292,7 @@
         <v>247685.64033856773</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="56" t="s">
         <v>79</v>
       </c>
@@ -10315,7 +10315,7 @@
         <v>435636.65246775595</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="56" t="s">
         <v>80</v>
       </c>
@@ -10338,7 +10338,7 @@
         <v>7302.0469577341519</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="63" t="s">
         <v>86</v>
       </c>
@@ -10361,7 +10361,7 @@
         <v>587608.63920066366</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="56" t="s">
         <v>87</v>
       </c>
@@ -10384,7 +10384,7 @@
         <v>138743.08584963548</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="56" t="s">
         <v>88</v>
       </c>
@@ -10407,7 +10407,7 @@
         <v>8045.2816189790883</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="56" t="s">
         <v>89</v>
       </c>
@@ -10430,7 +10430,7 @@
         <v>440820.27173204912</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="63" t="s">
         <v>90</v>
       </c>
@@ -10453,7 +10453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="66"/>
       <c r="B21" s="40"/>
       <c r="C21" s="40"/>
@@ -10462,7 +10462,7 @@
       <c r="F21" s="40"/>
       <c r="G21" s="40"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="67" t="s">
         <v>81</v>
       </c>
@@ -10485,7 +10485,7 @@
         <v>1336372.912873992</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="63" t="s">
         <v>85</v>
       </c>
@@ -10508,7 +10508,7 @@
         <v>93931.180000000008</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="63" t="s">
         <v>73</v>
       </c>
@@ -10531,7 +10531,7 @@
         <v>1006740.4357627709</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="56" t="s">
         <v>74</v>
       </c>
@@ -10554,7 +10554,7 @@
         <v>63738.931428774791</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="56" t="s">
         <v>82</v>
       </c>
@@ -10577,7 +10577,7 @@
         <v>131477.14878095107</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="57" t="s">
         <v>76</v>
       </c>
@@ -10600,7 +10600,7 @@
         <v>89534.913947263471</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="57" t="s">
         <v>77</v>
       </c>
@@ -10623,7 +10623,7 @@
         <v>41942.234833687638</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="56" t="s">
         <v>78</v>
       </c>
@@ -10646,7 +10646,7 @@
         <v>427346.16747689148</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="57" t="s">
         <v>65</v>
       </c>
@@ -10669,7 +10669,7 @@
         <v>360987.9386301139</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="57" t="s">
         <v>64</v>
       </c>
@@ -10692,7 +10692,7 @@
         <v>66358.228846777594</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="56" t="s">
         <v>79</v>
       </c>
@@ -10715,7 +10715,7 @@
         <v>383044.78807615401</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="56" t="s">
         <v>83</v>
       </c>
@@ -10738,7 +10738,7 @@
         <v>1133.4000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="63" t="s">
         <v>86</v>
       </c>
@@ -10761,7 +10761,7 @@
         <v>235701.29711122054</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="56" t="s">
         <v>87</v>
       </c>
@@ -10784,7 +10784,7 @@
         <v>63432.780613092924</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="56" t="s">
         <v>88</v>
       </c>
@@ -10807,7 +10807,7 @@
         <v>13513.310953866192</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="56" t="s">
         <v>89</v>
       </c>
@@ -10830,7 +10830,7 @@
         <v>158755.20554426141</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="63" t="s">
         <v>90</v>
       </c>
@@ -10865,17 +10865,18 @@
   </sheetPr>
   <dimension ref="A1:CD2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BJ1" workbookViewId="0">
-      <selection activeCell="BN6" sqref="BN6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="32" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="18.140625" customWidth="1"/>
+    <col min="4" max="32" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:82" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A1" s="71" t="s">
         <v>91</v>
       </c>
@@ -11123,7 +11124,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="2" spans="1:82" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>92</v>
       </c>

--- a/InputData/elec/BRPSPTY/BAU RPS Percentage This Year.xlsx
+++ b/InputData/elec/BRPSPTY/BAU RPS Percentage This Year.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rachel Goldstein\Dropbox (Energy Innovation)\Desktop\Vensim files from GitHub\EPS EU\InputData\elec\BRPSPTY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dobrien\Dropbox (Energy Innovation)\Desktop\Models\E.U. Models\eps-eu\InputData\elec\BRPSPTY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{138CD4E2-9B22-43E1-AF50-7DA6A6CB7E9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF1C9738-F816-4F8F-AE1F-199612DAB570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="615" yWindow="2280" windowWidth="22755" windowHeight="13815" firstSheet="2" activeTab="5" xr2:uid="{8223E8A3-2731-4425-BB39-7296F4257534}"/>
+    <workbookView xWindow="30615" yWindow="4560" windowWidth="24960" windowHeight="11130" activeTab="5" xr2:uid="{8223E8A3-2731-4425-BB39-7296F4257534}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="8" r:id="rId1"/>
@@ -957,7 +957,7 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="151">
+  <cellXfs count="150">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
@@ -1098,7 +1098,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -6028,9 +6027,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -6068,7 +6067,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -6174,7 +6173,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6316,7 +6315,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6326,26 +6325,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BBC8E5F-7B39-42FA-8A2F-FEDC71A3AF55}">
   <dimension ref="B11:D33"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28:D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="10.85546875" style="79"/>
-    <col min="3" max="3" width="45.28515625" style="79" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.85546875" style="79"/>
+    <col min="1" max="2" width="10.81640625" style="79"/>
+    <col min="3" max="3" width="45.26953125" style="79" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.81640625" style="79"/>
   </cols>
   <sheetData>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B11" s="80" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B12" s="81"/>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B13" s="81" t="s">
         <v>1</v>
       </c>
@@ -6356,117 +6355,117 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B14" s="81"/>
       <c r="C14" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="103" t="s">
+      <c r="D14" s="102" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B15" s="81"/>
       <c r="C15" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="103" t="s">
+      <c r="D15" s="102" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B16" s="81"/>
       <c r="C16" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="103" t="s">
+      <c r="D16" s="102" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B17" s="81"/>
       <c r="C17" s="82"/>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B19" s="81" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="104" t="s">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B20" s="103" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="83"/>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="104" t="s">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B21" s="103" t="s">
         <v>11</v>
       </c>
       <c r="C21" s="83"/>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="104" t="s">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B22" s="103" t="s">
         <v>12</v>
       </c>
       <c r="C22" s="83"/>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="104"/>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B23" s="103"/>
       <c r="C23" s="83"/>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="104" t="s">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B24" s="103" t="s">
         <v>13</v>
       </c>
       <c r="C24" s="83"/>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="104" t="s">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B25" s="103" t="s">
         <v>14</v>
       </c>
       <c r="C25" s="83"/>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B26" s="104" t="s">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B26" s="103" t="s">
         <v>15</v>
       </c>
       <c r="C26" s="83"/>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B27" s="104"/>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B27" s="103"/>
       <c r="C27" s="83"/>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B28" s="104" t="s">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B28" s="103" t="s">
         <v>16</v>
       </c>
       <c r="C28" s="83"/>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B29" s="104" t="s">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B29" s="103" t="s">
         <v>17</v>
       </c>
       <c r="C29" s="83"/>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B30" s="99" t="s">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B30" s="98" t="s">
         <v>18</v>
       </c>
       <c r="C30" s="83"/>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B31" s="146" t="s">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B31" s="145" t="s">
         <v>19</v>
       </c>
       <c r="C31" s="83"/>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B32" s="146" t="s">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B32" s="145" t="s">
         <v>20</v>
       </c>
       <c r="C32" s="83"/>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B33" s="83"/>
       <c r="C33" s="83"/>
     </row>
@@ -6486,51 +6485,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA549DE8-43E2-4163-8706-5C463FFB4A11}">
   <dimension ref="A1:AB41"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="45" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="X19" sqref="X19"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="20" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="96.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="27.81640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="20" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="96.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A1" s="108" t="s">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A1" s="107" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="111"/>
-      <c r="L1" s="112"/>
-      <c r="N1" s="108" t="s">
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="111"/>
+      <c r="N1" s="107" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
-      <c r="Q1" s="109"/>
-      <c r="R1" s="109"/>
-      <c r="S1" s="109"/>
-      <c r="T1" s="109"/>
-      <c r="U1" s="109"/>
-      <c r="V1" s="118"/>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2" s="113" t="s">
+      <c r="O1" s="108"/>
+      <c r="P1" s="108"/>
+      <c r="Q1" s="108"/>
+      <c r="R1" s="108"/>
+      <c r="S1" s="108"/>
+      <c r="T1" s="108"/>
+      <c r="U1" s="108"/>
+      <c r="V1" s="117"/>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A2" s="112" t="s">
         <v>23</v>
       </c>
       <c r="L2" s="12"/>
@@ -6540,7 +6539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
         <v>24</v>
       </c>
@@ -6550,7 +6549,7 @@
       <c r="C3" s="20">
         <v>2022</v>
       </c>
-      <c r="D3" s="100">
+      <c r="D3" s="99">
         <v>2021</v>
       </c>
       <c r="E3" s="75">
@@ -6597,7 +6596,7 @@
         <v>2050</v>
       </c>
       <c r="W3" s="40"/>
-      <c r="X3" s="123" t="s">
+      <c r="X3" s="122" t="s">
         <v>25</v>
       </c>
       <c r="Y3" s="40"/>
@@ -6605,7 +6604,7 @@
       <c r="AA3" s="40"/>
       <c r="AB3" s="40"/>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
         <v>26</v>
       </c>
@@ -6634,23 +6633,23 @@
       <c r="P4" s="3">
         <v>198326</v>
       </c>
-      <c r="Q4" s="123">
+      <c r="Q4" s="122">
         <f>'IRENA trends'!S3</f>
         <v>253217</v>
       </c>
-      <c r="R4" s="123">
+      <c r="R4" s="122">
         <f>'IRENA trends'!T3</f>
         <v>344702</v>
       </c>
-      <c r="S4" s="123">
+      <c r="S4" s="122">
         <f>'IRENA trends'!U3</f>
         <v>436187</v>
       </c>
-      <c r="T4" s="123">
+      <c r="T4" s="122">
         <f>'IRENA trends'!V3</f>
         <v>527672</v>
       </c>
-      <c r="U4" s="123">
+      <c r="U4" s="122">
         <f>'IRENA trends'!W3</f>
         <v>619157</v>
       </c>
@@ -6667,7 +6666,7 @@
       <c r="AA4" s="40"/>
       <c r="AB4" s="40"/>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
         <v>29</v>
       </c>
@@ -6683,7 +6682,7 @@
       <c r="E5" s="12">
         <v>2321</v>
       </c>
-      <c r="F5" s="105" t="s">
+      <c r="F5" s="104" t="s">
         <v>30</v>
       </c>
       <c r="L5" s="12"/>
@@ -6696,23 +6695,23 @@
       <c r="P5" s="3">
         <v>2321</v>
       </c>
-      <c r="Q5" s="123">
+      <c r="Q5" s="122">
         <f>'IRENA trends'!S4</f>
         <v>2321</v>
       </c>
-      <c r="R5" s="123">
+      <c r="R5" s="122">
         <f>'IRENA trends'!T4</f>
         <v>2321</v>
       </c>
-      <c r="S5" s="123">
+      <c r="S5" s="122">
         <f>'IRENA trends'!U4</f>
         <v>2321</v>
       </c>
-      <c r="T5" s="123">
+      <c r="T5" s="122">
         <f>'IRENA trends'!V4</f>
         <v>2321</v>
       </c>
-      <c r="U5" s="123">
+      <c r="U5" s="122">
         <f>'IRENA trends'!W4</f>
         <v>2321</v>
       </c>
@@ -6721,7 +6720,7 @@
         <v>2321</v>
       </c>
       <c r="W5" s="42"/>
-      <c r="X5" s="106" t="s">
+      <c r="X5" s="105" t="s">
         <v>31</v>
       </c>
       <c r="Y5" s="42"/>
@@ -6729,7 +6728,7 @@
       <c r="AA5" s="42"/>
       <c r="AB5" s="42"/>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
         <v>32</v>
       </c>
@@ -6745,7 +6744,7 @@
       <c r="E6" s="12">
         <v>200647</v>
       </c>
-      <c r="F6" s="106" t="s">
+      <c r="F6" s="105" t="s">
         <v>33</v>
       </c>
       <c r="L6" s="12"/>
@@ -6758,23 +6757,23 @@
       <c r="P6" s="3">
         <v>200647</v>
       </c>
-      <c r="Q6" s="123">
+      <c r="Q6" s="122">
         <f>'IRENA trends'!S5</f>
         <v>255538</v>
       </c>
-      <c r="R6" s="123">
+      <c r="R6" s="122">
         <f>'IRENA trends'!T5</f>
         <v>347023</v>
       </c>
-      <c r="S6" s="123">
+      <c r="S6" s="122">
         <f>'IRENA trends'!U5</f>
         <v>438508</v>
       </c>
-      <c r="T6" s="123">
+      <c r="T6" s="122">
         <f>'IRENA trends'!V5</f>
         <v>529993</v>
       </c>
-      <c r="U6" s="123">
+      <c r="U6" s="122">
         <f>'IRENA trends'!W5</f>
         <v>621478</v>
       </c>
@@ -6783,7 +6782,7 @@
         <v>712963</v>
       </c>
       <c r="W6" s="42"/>
-      <c r="X6" s="107" t="s">
+      <c r="X6" s="106" t="s">
         <v>34</v>
       </c>
       <c r="Y6" s="42"/>
@@ -6791,7 +6790,7 @@
       <c r="AA6" s="42"/>
       <c r="AB6" s="42"/>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
         <v>35</v>
       </c>
@@ -6807,7 +6806,7 @@
       <c r="E7" s="12">
         <v>16749</v>
       </c>
-      <c r="F7" s="107" t="s">
+      <c r="F7" s="106" t="s">
         <v>36</v>
       </c>
       <c r="L7" s="12"/>
@@ -6820,23 +6819,23 @@
       <c r="P7" s="3">
         <v>16749</v>
       </c>
-      <c r="Q7" s="123">
+      <c r="Q7" s="122">
         <f>'IRENA trends'!S6</f>
         <v>24120</v>
       </c>
-      <c r="R7" s="123">
+      <c r="R7" s="122">
         <f>'IRENA trends'!T6</f>
         <v>36405</v>
       </c>
-      <c r="S7" s="123">
+      <c r="S7" s="122">
         <f>'IRENA trends'!U6</f>
         <v>48690</v>
       </c>
-      <c r="T7" s="123">
+      <c r="T7" s="122">
         <f>'IRENA trends'!V6</f>
         <v>60975</v>
       </c>
-      <c r="U7" s="123">
+      <c r="U7" s="122">
         <f>'IRENA trends'!W6</f>
         <v>73260</v>
       </c>
@@ -6844,11 +6843,11 @@
         <f>'IRENA trends'!X6</f>
         <v>85545</v>
       </c>
-      <c r="X7" s="135" t="s">
+      <c r="X7" s="134" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="7" t="s">
         <v>38</v>
       </c>
@@ -6868,58 +6867,58 @@
       <c r="N8" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="O8" s="122">
+      <c r="O8" s="121">
         <v>173316</v>
       </c>
-      <c r="P8" s="122">
+      <c r="P8" s="121">
         <v>187373</v>
       </c>
-      <c r="Q8" s="124">
+      <c r="Q8" s="123">
         <f>'IRENA trends'!S7</f>
         <v>209765</v>
       </c>
-      <c r="R8" s="124">
+      <c r="R8" s="123">
         <f>'IRENA trends'!T7</f>
         <v>247085</v>
       </c>
-      <c r="S8" s="124">
+      <c r="S8" s="123">
         <f>'IRENA trends'!U7</f>
         <v>284405</v>
       </c>
-      <c r="T8" s="124">
+      <c r="T8" s="123">
         <f>'IRENA trends'!V7</f>
         <v>321725</v>
       </c>
-      <c r="U8" s="124">
+      <c r="U8" s="123">
         <f>'IRENA trends'!W7</f>
         <v>359045</v>
       </c>
-      <c r="V8" s="125">
+      <c r="V8" s="124">
         <f>'IRENA trends'!X7</f>
         <v>396365</v>
       </c>
-      <c r="X8" s="136" t="s">
+      <c r="X8" s="135" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A9" s="11"/>
-      <c r="B9" s="105">
+      <c r="B9" s="104">
         <v>2021</v>
       </c>
-      <c r="C9" s="105">
+      <c r="C9" s="104">
         <v>2022</v>
       </c>
       <c r="L9" s="12"/>
-      <c r="N9" s="114" t="s">
+      <c r="N9" s="113" t="s">
         <v>40</v>
       </c>
       <c r="V9" s="12"/>
-      <c r="X9" s="137" t="s">
+      <c r="X9" s="136" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
         <v>41</v>
       </c>
@@ -6930,13 +6929,13 @@
         <v>113504</v>
       </c>
       <c r="L10" s="12"/>
-      <c r="N10" s="114" t="s">
+      <c r="N10" s="113" t="s">
         <v>42</v>
       </c>
       <c r="V10" s="12"/>
       <c r="X10" s="71"/>
     </row>
-    <row r="11" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="11" t="s">
         <v>43</v>
       </c>
@@ -6951,7 +6950,7 @@
       <c r="V11" s="12"/>
       <c r="X11" s="71"/>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="s">
         <v>44</v>
       </c>
@@ -6990,37 +6989,37 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A13" s="11"/>
       <c r="L13" s="12"/>
       <c r="N13" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="O13" s="121">
+      <c r="O13" s="120">
         <f>O6*$D$27/1000000</f>
         <v>196.13107367359149</v>
       </c>
-      <c r="P13" s="121">
+      <c r="P13" s="120">
         <f t="shared" ref="P13:V13" si="0">P6*$D$27/1000000</f>
         <v>238.97441347736518</v>
       </c>
-      <c r="Q13" s="121">
+      <c r="Q13" s="120">
         <f t="shared" si="0"/>
         <v>304.35064402248196</v>
       </c>
-      <c r="R13" s="121">
+      <c r="R13" s="120">
         <f t="shared" si="0"/>
         <v>413.31102826434335</v>
       </c>
-      <c r="S13" s="121">
+      <c r="S13" s="120">
         <f t="shared" si="0"/>
         <v>522.27141250620468</v>
       </c>
-      <c r="T13" s="121">
+      <c r="T13" s="120">
         <f t="shared" si="0"/>
         <v>631.23179674806602</v>
       </c>
-      <c r="U13" s="121">
+      <c r="U13" s="120">
         <f t="shared" si="0"/>
         <v>740.19218098992746</v>
       </c>
@@ -7029,7 +7028,7 @@
         <v>849.1525652317888</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A14" s="11"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -7038,31 +7037,31 @@
       <c r="N14" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="O14" s="121">
+      <c r="O14" s="120">
         <f>O7*$D$28/1000000</f>
         <v>48.734117843659156</v>
       </c>
-      <c r="P14" s="121">
+      <c r="P14" s="120">
         <f t="shared" ref="P14:V14" si="1">P7*$D$28/1000000</f>
         <v>53.924010025992416</v>
       </c>
-      <c r="Q14" s="121">
+      <c r="Q14" s="120">
         <f t="shared" si="1"/>
         <v>77.65521056940338</v>
       </c>
-      <c r="R14" s="121">
+      <c r="R14" s="120">
         <f t="shared" si="1"/>
         <v>117.2072114750883</v>
       </c>
-      <c r="S14" s="121">
+      <c r="S14" s="120">
         <f t="shared" si="1"/>
         <v>156.75921238077325</v>
       </c>
-      <c r="T14" s="121">
+      <c r="T14" s="120">
         <f t="shared" si="1"/>
         <v>196.31121328645816</v>
       </c>
-      <c r="U14" s="121">
+      <c r="U14" s="120">
         <f t="shared" si="1"/>
         <v>235.86321419214309</v>
       </c>
@@ -7071,8 +7070,8 @@
         <v>275.41521509782802</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="113" t="s">
+    <row r="15" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="112" t="s">
         <v>47</v>
       </c>
       <c r="H15" s="1"/>
@@ -7082,31 +7081,31 @@
       <c r="N15" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="O15" s="121">
+      <c r="O15" s="120">
         <f>O8*$D$29/1000000</f>
         <v>354.29745102923397</v>
       </c>
-      <c r="P15" s="121">
+      <c r="P15" s="120">
         <f t="shared" ref="P15:V15" si="2">P8*$D$29/1000000</f>
         <v>383.03316653800374</v>
       </c>
-      <c r="Q15" s="121">
+      <c r="Q15" s="120">
         <f t="shared" si="2"/>
         <v>428.80752391670285</v>
       </c>
-      <c r="R15" s="121">
+      <c r="R15" s="120">
         <f t="shared" si="2"/>
         <v>505.09811954786795</v>
       </c>
-      <c r="S15" s="121">
+      <c r="S15" s="120">
         <f t="shared" si="2"/>
         <v>581.38871517903306</v>
       </c>
-      <c r="T15" s="121">
+      <c r="T15" s="120">
         <f t="shared" si="2"/>
         <v>657.67931081019822</v>
       </c>
-      <c r="U15" s="121">
+      <c r="U15" s="120">
         <f t="shared" si="2"/>
         <v>733.96990644136338</v>
       </c>
@@ -7115,7 +7114,7 @@
         <v>810.26050207252831</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A16" s="10" t="s">
         <v>45</v>
       </c>
@@ -7136,32 +7135,32 @@
       <c r="N16" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="O16" s="119">
+      <c r="O16" s="118">
         <v>319.60000000000002</v>
       </c>
-      <c r="P16" s="119">
+      <c r="P16" s="118">
         <v>255.6</v>
       </c>
-      <c r="Q16" s="120">
+      <c r="Q16" s="119">
         <v>340</v>
       </c>
-      <c r="R16" s="120">
+      <c r="R16" s="119">
         <v>342</v>
       </c>
-      <c r="S16" s="120">
+      <c r="S16" s="119">
         <v>341</v>
       </c>
-      <c r="T16" s="120">
+      <c r="T16" s="119">
         <v>341</v>
       </c>
-      <c r="U16" s="120">
+      <c r="U16" s="119">
         <v>342</v>
       </c>
       <c r="V16" s="61">
         <v>341</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A17" s="11" t="s">
         <v>46</v>
       </c>
@@ -7176,32 +7175,32 @@
       <c r="N17" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="O17" s="119">
+      <c r="O17" s="118">
         <v>80.8</v>
       </c>
-      <c r="P17" s="119">
+      <c r="P17" s="118">
         <v>80.2</v>
       </c>
-      <c r="Q17" s="120">
+      <c r="Q17" s="119">
         <v>56</v>
       </c>
-      <c r="R17" s="120">
+      <c r="R17" s="119">
         <v>68</v>
       </c>
-      <c r="S17" s="120">
+      <c r="S17" s="119">
         <v>59</v>
       </c>
-      <c r="T17" s="120">
+      <c r="T17" s="119">
         <v>42</v>
       </c>
-      <c r="U17" s="120">
+      <c r="U17" s="119">
         <v>32</v>
       </c>
       <c r="V17" s="61">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="11" t="s">
         <v>35</v>
       </c>
@@ -7216,32 +7215,32 @@
       <c r="N18" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="O18" s="126">
+      <c r="O18" s="125">
         <v>5.7</v>
       </c>
-      <c r="P18" s="126">
+      <c r="P18" s="125">
         <v>5.0999999999999996</v>
       </c>
-      <c r="Q18" s="101">
+      <c r="Q18" s="100">
         <v>31</v>
       </c>
-      <c r="R18" s="101">
+      <c r="R18" s="100">
         <v>32</v>
       </c>
-      <c r="S18" s="101">
+      <c r="S18" s="100">
         <v>33</v>
       </c>
-      <c r="T18" s="101">
+      <c r="T18" s="100">
         <v>34</v>
       </c>
-      <c r="U18" s="101">
+      <c r="U18" s="100">
         <v>34</v>
       </c>
-      <c r="V18" s="102">
+      <c r="V18" s="101">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A19" s="11" t="s">
         <v>38</v>
       </c>
@@ -7289,7 +7288,7 @@
         <v>2337.8282824021453</v>
       </c>
     </row>
-    <row r="20" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="11" t="s">
         <v>41</v>
       </c>
@@ -7304,38 +7303,38 @@
       <c r="N20" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="O20" s="126">
+      <c r="O20" s="125">
         <v>2587.6999999999998</v>
       </c>
-      <c r="P20" s="126">
+      <c r="P20" s="125">
         <v>2499.6999999999998</v>
       </c>
-      <c r="Q20" s="127">
+      <c r="Q20" s="126">
         <f>'Fit for 55'!F4/1000</f>
         <v>2827.589360527717</v>
       </c>
-      <c r="R20" s="127">
+      <c r="R20" s="126">
         <f>'Fit for 55'!G4/1000</f>
         <v>3153.5375898405973</v>
       </c>
-      <c r="S20" s="128">
+      <c r="S20" s="127">
         <f>R20*(1+'REF2020'!E5)</f>
         <v>3276.12081465659</v>
       </c>
-      <c r="T20" s="128">
+      <c r="T20" s="127">
         <f>S20*(1+'REF2020'!F5)</f>
         <v>3382.0732852204146</v>
       </c>
-      <c r="U20" s="128">
+      <c r="U20" s="127">
         <f>T20*(1+'REF2020'!G5)</f>
         <v>3495.0982758044402</v>
       </c>
-      <c r="V20" s="129">
+      <c r="V20" s="128">
         <f>U20*(1+'REF2020'!H5)</f>
         <v>3600.9504270677526</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A21" s="11" t="s">
         <v>43</v>
       </c>
@@ -7356,7 +7355,7 @@
       <c r="U21" s="60"/>
       <c r="V21" s="60"/>
     </row>
-    <row r="22" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="11" t="s">
         <v>44</v>
       </c>
@@ -7368,7 +7367,7 @@
       </c>
       <c r="L22" s="12"/>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>48</v>
       </c>
@@ -7379,19 +7378,19 @@
         <v>904.7</v>
       </c>
       <c r="L23" s="12"/>
-      <c r="N23" s="108" t="s">
+      <c r="N23" s="107" t="s">
         <v>50</v>
       </c>
-      <c r="O23" s="109"/>
-      <c r="P23" s="109"/>
-      <c r="Q23" s="109"/>
-      <c r="R23" s="109"/>
-      <c r="S23" s="109"/>
-      <c r="T23" s="109"/>
-      <c r="U23" s="118"/>
-      <c r="V23" s="138"/>
-    </row>
-    <row r="24" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O23" s="108"/>
+      <c r="P23" s="108"/>
+      <c r="Q23" s="108"/>
+      <c r="R23" s="108"/>
+      <c r="S23" s="108"/>
+      <c r="T23" s="108"/>
+      <c r="U23" s="117"/>
+      <c r="V23" s="137"/>
+    </row>
+    <row r="24" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="7" t="s">
         <v>49</v>
       </c>
@@ -7406,26 +7405,26 @@
       <c r="O24" s="42"/>
       <c r="U24" s="12"/>
     </row>
-    <row r="25" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="11"/>
       <c r="L25" s="12"/>
-      <c r="N25" s="130" t="s">
+      <c r="N25" s="129" t="s">
         <v>7</v>
       </c>
       <c r="O25" s="40"/>
       <c r="U25" s="12"/>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A26" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="B26" s="131">
+      <c r="B26" s="130">
         <v>2021</v>
       </c>
-      <c r="C26" s="131">
+      <c r="C26" s="130">
         <v>2022</v>
       </c>
-      <c r="D26" s="132" t="s">
+      <c r="D26" s="131" t="s">
         <v>52</v>
       </c>
       <c r="E26" s="4">
@@ -7472,7 +7471,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A27" s="11" t="s">
         <v>32</v>
       </c>
@@ -7518,7 +7517,7 @@
       </c>
       <c r="U27" s="12"/>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A28" s="11" t="s">
         <v>35</v>
       </c>
@@ -7564,7 +7563,7 @@
       </c>
       <c r="U28" s="12"/>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A29" s="11" t="s">
         <v>38</v>
       </c>
@@ -7637,7 +7636,7 @@
         <v>513894.97433035483</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A30" s="11" t="s">
         <v>41</v>
       </c>
@@ -7704,7 +7703,7 @@
         <v>95023.201612612349</v>
       </c>
     </row>
-    <row r="31" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="11" t="s">
         <v>43</v>
       </c>
@@ -7771,7 +7770,7 @@
         <v>412615.47339026764</v>
       </c>
     </row>
-    <row r="32" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="11" t="s">
         <v>44</v>
       </c>
@@ -7809,30 +7808,30 @@
       <c r="N32" s="11"/>
       <c r="U32" s="12"/>
     </row>
-    <row r="33" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="11"/>
       <c r="L33" s="12"/>
-      <c r="N33" s="130" t="s">
+      <c r="N33" s="129" t="s">
         <v>53</v>
       </c>
       <c r="O33" s="40"/>
       <c r="U33" s="12"/>
     </row>
-    <row r="34" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="115" t="s">
+    <row r="34" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="114" t="s">
         <v>54</v>
       </c>
-      <c r="B34" s="116"/>
-      <c r="C34" s="116"/>
-      <c r="D34" s="116"/>
-      <c r="E34" s="116"/>
-      <c r="F34" s="116"/>
-      <c r="G34" s="116"/>
-      <c r="H34" s="116"/>
-      <c r="I34" s="116"/>
-      <c r="J34" s="116"/>
-      <c r="K34" s="116"/>
-      <c r="L34" s="117"/>
+      <c r="B34" s="115"/>
+      <c r="C34" s="115"/>
+      <c r="D34" s="115"/>
+      <c r="E34" s="115"/>
+      <c r="F34" s="115"/>
+      <c r="G34" s="115"/>
+      <c r="H34" s="115"/>
+      <c r="I34" s="115"/>
+      <c r="J34" s="115"/>
+      <c r="K34" s="115"/>
+      <c r="L34" s="116"/>
       <c r="N34" s="10" t="s">
         <v>24</v>
       </c>
@@ -7858,7 +7857,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="11"/>
       <c r="L35" s="12"/>
       <c r="N35" s="11" t="s">
@@ -7866,8 +7865,8 @@
       </c>
       <c r="U35" s="12"/>
     </row>
-    <row r="36" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="141" t="s">
+    <row r="36" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="140" t="s">
         <v>55</v>
       </c>
       <c r="B36" s="69">
@@ -7908,51 +7907,51 @@
       </c>
       <c r="U36" s="12"/>
     </row>
-    <row r="37" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="147" t="s">
+    <row r="37" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="146" t="s">
         <v>56</v>
       </c>
-      <c r="B37" s="148">
+      <c r="B37" s="147">
         <f>B40</f>
         <v>0.22783216755643329</v>
       </c>
-      <c r="C37" s="148">
+      <c r="C37" s="147">
         <f>C40</f>
         <v>0.30720780292455185</v>
       </c>
-      <c r="D37" s="148">
+      <c r="D37" s="147">
         <f>D40</f>
         <v>0.39912416911933146</v>
       </c>
-      <c r="E37" s="149">
+      <c r="E37" s="148">
         <f>O19/O20</f>
         <v>0.38847727423831385</v>
       </c>
-      <c r="F37" s="149">
+      <c r="F37" s="148">
         <f t="shared" ref="F37:L37" si="10">P19/P20</f>
         <v>0.40678144979051944</v>
       </c>
-      <c r="G37" s="149">
-        <f t="shared" si="10"/>
+      <c r="G37" s="148">
+        <f>Q19/Q20</f>
         <v>0.43776277976854933</v>
       </c>
-      <c r="H37" s="149">
+      <c r="H37" s="148">
         <f t="shared" si="10"/>
         <v>0.46855834667947915</v>
       </c>
-      <c r="I37" s="149">
+      <c r="I37" s="148">
         <f t="shared" si="10"/>
         <v>0.51689770795083423</v>
       </c>
-      <c r="J37" s="149">
+      <c r="J37" s="148">
         <f t="shared" si="10"/>
         <v>0.5624426676847577</v>
       </c>
-      <c r="K37" s="149">
+      <c r="K37" s="148">
         <f t="shared" si="10"/>
         <v>0.60599878300587817</v>
       </c>
-      <c r="L37" s="150">
+      <c r="L37" s="149">
         <f t="shared" si="10"/>
         <v>0.64922534473928728</v>
       </c>
@@ -7984,18 +7983,18 @@
         <v>57</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A38" s="139" t="s">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A38" s="138" t="s">
         <v>7</v>
       </c>
-      <c r="B38" s="142"/>
-      <c r="C38" s="142"/>
+      <c r="B38" s="141"/>
+      <c r="C38" s="141"/>
       <c r="D38" s="50">
         <f>'REF2020'!B36</f>
         <v>0.39798002118013448</v>
       </c>
-      <c r="E38" s="142"/>
-      <c r="F38" s="142"/>
+      <c r="E38" s="141"/>
+      <c r="F38" s="141"/>
       <c r="G38" s="50">
         <f>'REF2020'!C36</f>
         <v>0.49592733428221919</v>
@@ -8048,8 +8047,8 @@
         <v>57</v>
       </c>
     </row>
-    <row r="39" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="139" t="s">
+    <row r="39" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="138" t="s">
         <v>53</v>
       </c>
       <c r="B39" s="50">
@@ -8064,8 +8063,8 @@
         <f>'Fit for 55'!E6/'Fit for 55'!E4</f>
         <v>0.39912416911933146</v>
       </c>
-      <c r="E39" s="142"/>
-      <c r="F39" s="142"/>
+      <c r="E39" s="141"/>
+      <c r="F39" s="141"/>
       <c r="G39" s="50">
         <f>'Fit for 55'!F6/'Fit for 55'!F4</f>
         <v>0.53839187300682489</v>
@@ -8074,10 +8073,10 @@
         <f>'Fit for 55'!G6/'Fit for 55'!G4</f>
         <v>0.65023194345107793</v>
       </c>
-      <c r="I39" s="142"/>
-      <c r="J39" s="142"/>
-      <c r="K39" s="142"/>
-      <c r="L39" s="145"/>
+      <c r="I39" s="141"/>
+      <c r="J39" s="141"/>
+      <c r="K39" s="141"/>
+      <c r="L39" s="144"/>
       <c r="N39" s="7" t="s">
         <v>38</v>
       </c>
@@ -8106,8 +8105,8 @@
         <v>57</v>
       </c>
     </row>
-    <row r="40" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="140" t="s">
+    <row r="40" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="139" t="s">
         <v>47</v>
       </c>
       <c r="B40" s="74">
@@ -8130,12 +8129,12 @@
         <f>P19/P20</f>
         <v>0.40678144979051944</v>
       </c>
-      <c r="G40" s="143"/>
-      <c r="H40" s="143"/>
-      <c r="I40" s="143"/>
-      <c r="J40" s="143"/>
-      <c r="K40" s="143"/>
-      <c r="L40" s="144"/>
+      <c r="G40" s="142"/>
+      <c r="H40" s="142"/>
+      <c r="I40" s="142"/>
+      <c r="J40" s="142"/>
+      <c r="K40" s="142"/>
+      <c r="L40" s="143"/>
       <c r="M40" s="72"/>
       <c r="N40" s="72"/>
       <c r="O40" s="72"/>
@@ -8147,7 +8146,7 @@
       <c r="U40" s="72"/>
       <c r="V40" s="72"/>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B41" t="s">
         <v>58</v>
       </c>
@@ -8178,24 +8177,24 @@
   <dimension ref="A1:X40"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.140625" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.140625" customWidth="1"/>
-    <col min="13" max="14" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="37.85546875" customWidth="1"/>
-    <col min="17" max="18" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="24" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.1796875" customWidth="1"/>
+    <col min="3" max="3" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.1796875" customWidth="1"/>
+    <col min="13" max="14" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="37.81640625" customWidth="1"/>
+    <col min="17" max="18" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="21" max="24" width="13.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>59</v>
       </c>
@@ -8206,7 +8205,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>62</v>
       </c>
@@ -8238,7 +8237,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
       <c r="B3" s="24">
         <v>2012</v>
@@ -8307,7 +8306,7 @@
         <v>710642</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
         <v>63</v>
       </c>
@@ -8374,7 +8373,7 @@
         <v>2321</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
         <v>64</v>
       </c>
@@ -8449,7 +8448,7 @@
         <v>712963</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="7" t="s">
         <v>65</v>
       </c>
@@ -8522,7 +8521,7 @@
         <v>85545</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="K7" s="1"/>
       <c r="L7" s="18"/>
       <c r="M7" s="18"/>
@@ -8561,7 +8560,7 @@
         <v>396365</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
       <c r="K8" s="1"/>
       <c r="L8" s="18"/>
       <c r="M8" s="18"/>
@@ -8590,7 +8589,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -8631,7 +8630,7 @@
         <v>91485</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
       <c r="P10" s="11" t="s">
         <v>35</v>
       </c>
@@ -8660,38 +8659,38 @@
         <v>12285</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="P11" s="7" t="s">
         <v>38</v>
       </c>
       <c r="Q11" s="8"/>
       <c r="R11" s="8"/>
-      <c r="S11" s="133">
+      <c r="S11" s="132">
         <f>J16*3</f>
         <v>22392</v>
       </c>
-      <c r="T11" s="133">
+      <c r="T11" s="132">
         <f>$J$16*5</f>
         <v>37320</v>
       </c>
-      <c r="U11" s="133">
+      <c r="U11" s="132">
         <f t="shared" ref="U11:X11" si="5">$J$16*5</f>
         <v>37320</v>
       </c>
-      <c r="V11" s="133">
+      <c r="V11" s="132">
         <f t="shared" si="5"/>
         <v>37320</v>
       </c>
-      <c r="W11" s="133">
+      <c r="W11" s="132">
         <f t="shared" si="5"/>
         <v>37320</v>
       </c>
-      <c r="X11" s="134">
+      <c r="X11" s="133">
         <f t="shared" si="5"/>
         <v>37320</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
       <c r="E12" s="19"/>
@@ -8711,7 +8710,7 @@
       <c r="W12" s="4"/>
       <c r="X12" s="4"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A13" s="10" t="s">
         <v>67</v>
       </c>
@@ -8760,7 +8759,7 @@
       <c r="W13" s="60"/>
       <c r="X13" s="60"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A14" s="11" t="s">
         <v>26</v>
       </c>
@@ -8814,7 +8813,7 @@
       <c r="W14" s="60"/>
       <c r="X14" s="60"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A15" s="11" t="s">
         <v>64</v>
       </c>
@@ -8868,7 +8867,7 @@
       <c r="W15" s="60"/>
       <c r="X15" s="60"/>
     </row>
-    <row r="16" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="7" t="s">
         <v>65</v>
       </c>
@@ -8923,7 +8922,7 @@
       <c r="W16" s="60"/>
       <c r="X16" s="60"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.35">
       <c r="J17" s="78" t="s">
         <v>69</v>
       </c>
@@ -8937,7 +8936,7 @@
       <c r="W17" s="60"/>
       <c r="X17" s="60"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="P18" s="4"/>
@@ -8950,7 +8949,7 @@
       <c r="W18" s="60"/>
       <c r="X18" s="60"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A19" s="71"/>
       <c r="B19" s="17"/>
       <c r="C19" s="17"/>
@@ -8959,7 +8958,7 @@
       <c r="F19" s="18"/>
       <c r="P19" s="4"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
       <c r="D20" s="18"/>
@@ -8967,28 +8966,28 @@
       <c r="F20" s="18"/>
       <c r="P20" s="4"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="18"/>
       <c r="E21" s="18"/>
       <c r="F21" s="18"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="18"/>
       <c r="E22" s="18"/>
       <c r="F22" s="18"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="18"/>
       <c r="E23" s="18"/>
       <c r="F23" s="18"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A26" s="71"/>
       <c r="P26" s="84"/>
       <c r="Q26" s="84"/>
@@ -8998,7 +8997,7 @@
       <c r="U26" s="84"/>
       <c r="V26" s="84"/>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A27" s="71"/>
       <c r="P27" s="84"/>
       <c r="Q27" s="85"/>
@@ -9008,7 +9007,7 @@
       <c r="U27" s="85"/>
       <c r="V27" s="85"/>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.35">
       <c r="P28" s="84"/>
       <c r="Q28" s="85"/>
       <c r="R28" s="85"/>
@@ -9017,7 +9016,7 @@
       <c r="U28" s="85"/>
       <c r="V28" s="85"/>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.35">
       <c r="P29" s="84"/>
       <c r="Q29" s="85"/>
       <c r="R29" s="85"/>
@@ -9026,7 +9025,7 @@
       <c r="U29" s="85"/>
       <c r="V29" s="85"/>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.35">
       <c r="P30" s="84"/>
       <c r="Q30" s="85"/>
       <c r="R30" s="85"/>
@@ -9035,7 +9034,7 @@
       <c r="U30" s="85"/>
       <c r="V30" s="85"/>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.35">
       <c r="P31" s="84"/>
       <c r="Q31" s="85"/>
       <c r="R31" s="85"/>
@@ -9044,7 +9043,7 @@
       <c r="U31" s="85"/>
       <c r="V31" s="85"/>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.35">
       <c r="P32" s="84"/>
       <c r="Q32" s="85"/>
       <c r="R32" s="85"/>
@@ -9053,7 +9052,7 @@
       <c r="U32" s="85"/>
       <c r="V32" s="85"/>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.35">
       <c r="P33" s="84"/>
       <c r="Q33" s="85"/>
       <c r="R33" s="85"/>
@@ -9062,7 +9061,7 @@
       <c r="U33" s="85"/>
       <c r="V33" s="85"/>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -9075,7 +9074,7 @@
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A35" s="4"/>
       <c r="F35" s="27"/>
       <c r="G35" s="27"/>
@@ -9084,7 +9083,7 @@
       <c r="J35" s="27"/>
       <c r="K35" s="27"/>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A36" s="4"/>
       <c r="F36" s="27"/>
       <c r="G36" s="27"/>
@@ -9093,7 +9092,7 @@
       <c r="J36" s="27"/>
       <c r="K36" s="27"/>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A37" s="4"/>
       <c r="F37" s="27"/>
       <c r="G37" s="27"/>
@@ -9102,7 +9101,7 @@
       <c r="J37" s="27"/>
       <c r="K37" s="27"/>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A38" s="4"/>
       <c r="F38" s="27"/>
       <c r="G38" s="27"/>
@@ -9111,7 +9110,7 @@
       <c r="J38" s="27"/>
       <c r="K38" s="27"/>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A39" s="4"/>
       <c r="F39" s="27"/>
       <c r="G39" s="27"/>
@@ -9120,7 +9119,7 @@
       <c r="J39" s="27"/>
       <c r="K39" s="27"/>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A40" s="4"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
@@ -9142,15 +9141,15 @@
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="41" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="29"/>
       <c r="B1" s="29"/>
       <c r="C1" s="29"/>
@@ -9160,7 +9159,7 @@
       <c r="G1" s="29"/>
       <c r="H1" s="29"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="30"/>
       <c r="B2" s="31">
         <v>2020</v>
@@ -9184,7 +9183,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="33" t="s">
         <v>70</v>
       </c>
@@ -9196,7 +9195,7 @@
       <c r="G3" s="34"/>
       <c r="H3" s="35"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="36" t="s">
         <v>71</v>
       </c>
@@ -9222,7 +9221,7 @@
         <v>3420676.8662906797</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="52" t="s">
         <v>72</v>
       </c>
@@ -9252,7 +9251,7 @@
         <v>3.0285886950903902E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="39" t="s">
         <v>73</v>
       </c>
@@ -9278,7 +9277,7 @@
         <v>2542270.2940083593</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="44" t="s">
         <v>74</v>
       </c>
@@ -9304,7 +9303,7 @@
         <v>207321.14157649977</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="44" t="s">
         <v>75</v>
       </c>
@@ -9330,7 +9329,7 @@
         <v>368186.56193746976</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="45" t="s">
         <v>76</v>
       </c>
@@ -9356,7 +9355,7 @@
         <v>190933.72364244243</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="45" t="s">
         <v>77</v>
       </c>
@@ -9382,7 +9381,7 @@
         <v>177252.83829502721</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="44" t="s">
         <v>78</v>
       </c>
@@ -9408,7 +9407,7 @@
         <v>1350438.0753462599</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="45" t="s">
         <v>65</v>
       </c>
@@ -9434,7 +9433,7 @@
         <v>990669.90900849062</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="45" t="s">
         <v>64</v>
       </c>
@@ -9460,7 +9459,7 @@
         <v>359768.16633776913</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="44" t="s">
         <v>79</v>
       </c>
@@ -9486,7 +9485,7 @@
         <v>599657.36191915383</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="44" t="s">
         <v>80</v>
       </c>
@@ -9512,7 +9511,7 @@
         <v>16667.153228975938</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="46"/>
       <c r="B16" s="40"/>
       <c r="C16" s="40"/>
@@ -9522,7 +9521,7 @@
       <c r="G16" s="40"/>
       <c r="H16" s="41"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="46"/>
       <c r="B17" s="40"/>
       <c r="C17" s="40"/>
@@ -9532,7 +9531,7 @@
       <c r="G17" s="40"/>
       <c r="H17" s="41"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="36" t="s">
         <v>81</v>
       </c>
@@ -9558,7 +9557,7 @@
         <v>1386347.2096200143</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="39" t="s">
         <v>73</v>
       </c>
@@ -9584,7 +9583,7 @@
         <v>1213108.7488916744</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="44" t="s">
         <v>74</v>
       </c>
@@ -9610,7 +9609,7 @@
         <v>55588.655806831353</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="44" t="s">
         <v>82</v>
       </c>
@@ -9636,7 +9635,7 @@
         <v>133135.17602102979</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="45" t="s">
         <v>76</v>
       </c>
@@ -9662,7 +9661,7 @@
         <v>89864.065417295002</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="45" t="s">
         <v>77</v>
       </c>
@@ -9688,7 +9687,7 @@
         <v>43271.110603734829</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="44" t="s">
         <v>78</v>
       </c>
@@ -9714,7 +9713,7 @@
         <v>507638.67500287993</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="45" t="s">
         <v>65</v>
       </c>
@@ -9740,7 +9739,7 @@
         <v>412615.47339026764</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="45" t="s">
         <v>64</v>
       </c>
@@ -9766,7 +9765,7 @@
         <v>95023.201612612349</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="44" t="s">
         <v>79</v>
       </c>
@@ -9792,7 +9791,7 @@
         <v>513894.97433035483</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="47" t="s">
         <v>83</v>
       </c>
@@ -9818,8 +9817,8 @@
         <v>2851.2677305788761</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
         <v>51</v>
       </c>
@@ -9845,7 +9844,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="45" t="s">
         <v>65</v>
       </c>
@@ -9878,7 +9877,7 @@
         <v>2.4009519101855803</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="45" t="s">
         <v>64</v>
       </c>
@@ -9911,7 +9910,7 @@
         <v>3.7861086580145011</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="47" t="s">
         <v>79</v>
       </c>
@@ -9944,7 +9943,7 @@
         <v>1.1668869941772715</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>84</v>
       </c>
@@ -9970,7 +9969,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -10012,16 +10011,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30794F1F-4FAD-4D7A-84B2-1EE96AB5A396}">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="41" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="29"/>
       <c r="B1" s="29"/>
       <c r="C1" s="29"/>
@@ -10030,7 +10029,7 @@
       <c r="F1" s="29"/>
       <c r="G1" s="29"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="68"/>
       <c r="B2" s="65">
         <v>2005</v>
@@ -10051,7 +10050,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="64" t="s">
         <v>70</v>
       </c>
@@ -10062,7 +10061,7 @@
       <c r="F3" s="34"/>
       <c r="G3" s="34"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="67" t="s">
         <v>71</v>
       </c>
@@ -10085,7 +10084,7 @@
         <v>3153537.5898405975</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="63" t="s">
         <v>85</v>
       </c>
@@ -10108,7 +10107,7 @@
         <v>515398.0748518536</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="63" t="s">
         <v>73</v>
       </c>
@@ -10131,7 +10130,7 @@
         <v>2050530.87578808</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="56" t="s">
         <v>74</v>
       </c>
@@ -10154,7 +10153,7 @@
         <v>167171.97368861208</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="56" t="s">
         <v>75</v>
       </c>
@@ -10177,7 +10176,7 @@
         <v>361836.01941072679</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="57" t="s">
         <v>76</v>
       </c>
@@ -10200,7 +10199,7 @@
         <v>190294.89092214324</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="57" t="s">
         <v>77</v>
       </c>
@@ -10223,7 +10222,7 @@
         <v>171541.12848858361</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="56" t="s">
         <v>78</v>
       </c>
@@ -10246,7 +10245,7 @@
         <v>1078584.1832632506</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="57" t="s">
         <v>65</v>
       </c>
@@ -10269,7 +10268,7 @@
         <v>830898.54292468261</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="57" t="s">
         <v>64</v>
       </c>
@@ -10292,7 +10291,7 @@
         <v>247685.64033856773</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="56" t="s">
         <v>79</v>
       </c>
@@ -10315,7 +10314,7 @@
         <v>435636.65246775595</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="56" t="s">
         <v>80</v>
       </c>
@@ -10338,7 +10337,7 @@
         <v>7302.0469577341519</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="63" t="s">
         <v>86</v>
       </c>
@@ -10361,7 +10360,7 @@
         <v>587608.63920066366</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="56" t="s">
         <v>87</v>
       </c>
@@ -10384,7 +10383,7 @@
         <v>138743.08584963548</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="56" t="s">
         <v>88</v>
       </c>
@@ -10407,7 +10406,7 @@
         <v>8045.2816189790883</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="56" t="s">
         <v>89</v>
       </c>
@@ -10430,7 +10429,7 @@
         <v>440820.27173204912</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="63" t="s">
         <v>90</v>
       </c>
@@ -10453,7 +10452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="66"/>
       <c r="B21" s="40"/>
       <c r="C21" s="40"/>
@@ -10462,7 +10461,7 @@
       <c r="F21" s="40"/>
       <c r="G21" s="40"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="67" t="s">
         <v>81</v>
       </c>
@@ -10485,7 +10484,7 @@
         <v>1336372.912873992</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="63" t="s">
         <v>85</v>
       </c>
@@ -10508,7 +10507,7 @@
         <v>93931.180000000008</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="63" t="s">
         <v>73</v>
       </c>
@@ -10531,7 +10530,7 @@
         <v>1006740.4357627709</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="56" t="s">
         <v>74</v>
       </c>
@@ -10554,7 +10553,7 @@
         <v>63738.931428774791</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="56" t="s">
         <v>82</v>
       </c>
@@ -10577,7 +10576,7 @@
         <v>131477.14878095107</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="57" t="s">
         <v>76</v>
       </c>
@@ -10600,7 +10599,7 @@
         <v>89534.913947263471</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="57" t="s">
         <v>77</v>
       </c>
@@ -10623,7 +10622,7 @@
         <v>41942.234833687638</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="56" t="s">
         <v>78</v>
       </c>
@@ -10646,7 +10645,7 @@
         <v>427346.16747689148</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="57" t="s">
         <v>65</v>
       </c>
@@ -10669,7 +10668,7 @@
         <v>360987.9386301139</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="57" t="s">
         <v>64</v>
       </c>
@@ -10692,7 +10691,7 @@
         <v>66358.228846777594</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="56" t="s">
         <v>79</v>
       </c>
@@ -10715,7 +10714,7 @@
         <v>383044.78807615401</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="56" t="s">
         <v>83</v>
       </c>
@@ -10738,7 +10737,7 @@
         <v>1133.4000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="63" t="s">
         <v>86</v>
       </c>
@@ -10761,7 +10760,7 @@
         <v>235701.29711122054</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="56" t="s">
         <v>87</v>
       </c>
@@ -10784,7 +10783,7 @@
         <v>63432.780613092924</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="56" t="s">
         <v>88</v>
       </c>
@@ -10807,7 +10806,7 @@
         <v>13513.310953866192</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="56" t="s">
         <v>89</v>
       </c>
@@ -10830,7 +10829,7 @@
         <v>158755.20554426141</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="63" t="s">
         <v>90</v>
       </c>
@@ -10866,17 +10865,17 @@
   <dimension ref="A1:CD2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="18.140625" customWidth="1"/>
-    <col min="4" max="32" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="18.1796875" customWidth="1"/>
+    <col min="4" max="32" width="12.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A1" s="71" t="s">
         <v>91</v>
       </c>
@@ -11124,333 +11123,252 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="2" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:82" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>92</v>
       </c>
       <c r="B2" s="97">
-        <f>BILAN!D37</f>
-        <v>0.39912416911933146</v>
+        <v>0</v>
       </c>
       <c r="C2" s="97">
-        <f>BILAN!E37</f>
-        <v>0.38847727423831385</v>
+        <v>0</v>
       </c>
       <c r="D2" s="97">
-        <f>BILAN!F37</f>
-        <v>0.40678144979051944</v>
+        <v>0</v>
       </c>
       <c r="E2" s="97">
-        <f>($G$2-$D$2)/($G$1-$D$1)*(E1-$D$1)+$D$2</f>
-        <v>0.41710855978319605</v>
+        <v>0</v>
       </c>
       <c r="F2" s="97">
-        <f>($G$2-$D$2)/($G$1-$D$1)*(F1-$D$1)+$D$2</f>
-        <v>0.42743566977587272</v>
+        <v>0</v>
       </c>
       <c r="G2" s="97">
-        <f>BILAN!G37</f>
-        <v>0.43776277976854933</v>
+        <v>0</v>
       </c>
       <c r="H2" s="97">
-        <f>($L$2-$G$2)/($L$1-$G$1)*(H1-$G$1)+$G$2</f>
-        <v>0.44392189315073527</v>
+        <v>0</v>
       </c>
       <c r="I2" s="97">
-        <f t="shared" ref="I2:K2" si="0">($L$2-$G$2)/($L$1-$G$1)*(I1-$G$1)+$G$2</f>
-        <v>0.45008100653292127</v>
+        <v>0</v>
       </c>
       <c r="J2" s="97">
-        <f t="shared" si="0"/>
-        <v>0.45624011991510721</v>
+        <v>0</v>
       </c>
       <c r="K2" s="97">
-        <f t="shared" si="0"/>
-        <v>0.46239923329729321</v>
-      </c>
-      <c r="L2" s="98">
-        <f>BILAN!H37</f>
-        <v>0.46855834667947915</v>
+        <v>0</v>
+      </c>
+      <c r="L2" s="97">
+        <v>0</v>
       </c>
       <c r="M2" s="97">
-        <f>($Q$2-$L$2)/($Q$1-$L$1)*(M1-$L$1)+$L$2</f>
-        <v>0.47822621893375017</v>
+        <v>0</v>
       </c>
       <c r="N2" s="97">
-        <f t="shared" ref="N2:P2" si="1">($Q$2-$L$2)/($Q$1-$L$1)*(N1-$L$1)+$L$2</f>
-        <v>0.48789409118802118</v>
+        <v>0</v>
       </c>
       <c r="O2" s="97">
-        <f t="shared" si="1"/>
-        <v>0.4975619634422922</v>
+        <v>0</v>
       </c>
       <c r="P2" s="97">
-        <f t="shared" si="1"/>
-        <v>0.50722983569656321</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="97">
-        <f>BILAN!I37</f>
-        <v>0.51689770795083423</v>
+        <v>0</v>
       </c>
       <c r="R2" s="97">
-        <f>($V$2-$Q$2)/($V$1-$Q$1)*(R1-$Q$1)+$Q$2</f>
-        <v>0.52600669989761895</v>
+        <v>0</v>
       </c>
       <c r="S2" s="97">
-        <f t="shared" ref="S2:U2" si="2">($V$2-$Q$2)/($V$1-$Q$1)*(S1-$Q$1)+$Q$2</f>
-        <v>0.53511569184440366</v>
+        <v>0</v>
       </c>
       <c r="T2" s="97">
-        <f t="shared" si="2"/>
-        <v>0.54422468379118827</v>
+        <v>0</v>
       </c>
       <c r="U2" s="97">
-        <f t="shared" si="2"/>
-        <v>0.55333367573797299</v>
+        <v>0</v>
       </c>
       <c r="V2" s="97">
-        <f>BILAN!J37</f>
-        <v>0.5624426676847577</v>
+        <v>0</v>
       </c>
       <c r="W2" s="97">
-        <f>($AA$2-$V$2)/($AA$1-$V$1)*(W1-$V$1)+$V$2</f>
-        <v>0.57115389074898182</v>
+        <v>0</v>
       </c>
       <c r="X2" s="97">
-        <f t="shared" ref="X2:Z2" si="3">($AA$2-$V$2)/($AA$1-$V$1)*(X1-$V$1)+$V$2</f>
-        <v>0.57986511381320593</v>
+        <v>0</v>
       </c>
       <c r="Y2" s="97">
-        <f t="shared" si="3"/>
-        <v>0.58857633687742994</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="97">
-        <f t="shared" si="3"/>
-        <v>0.59728755994165406</v>
+        <v>0</v>
       </c>
       <c r="AA2" s="97">
-        <f>BILAN!K37</f>
-        <v>0.60599878300587817</v>
+        <v>0</v>
       </c>
       <c r="AB2" s="97">
-        <f>($AF$2-$AA$2)/($AF$1-$AA$1)*(AB1-$AA$1)+$AA$2</f>
-        <v>0.61464409535256004</v>
+        <v>0</v>
       </c>
       <c r="AC2" s="97">
-        <f t="shared" ref="AC2:AE2" si="4">($AF$2-$AA$2)/($AF$1-$AA$1)*(AC1-$AA$1)+$AA$2</f>
-        <v>0.62328940769924179</v>
+        <v>0</v>
       </c>
       <c r="AD2" s="97">
-        <f t="shared" si="4"/>
-        <v>0.63193472004592366</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="97">
-        <f t="shared" si="4"/>
-        <v>0.64058003239260541</v>
+        <v>0</v>
       </c>
       <c r="AF2" s="97">
-        <f>BILAN!L37</f>
-        <v>0.64922534473928728</v>
+        <v>0</v>
       </c>
       <c r="AG2" s="97">
-        <f>AF2</f>
-        <v>0.64922534473928728</v>
+        <v>0</v>
       </c>
       <c r="AH2" s="97">
-        <f t="shared" ref="AH2:CC2" si="5">AG2</f>
-        <v>0.64922534473928728</v>
+        <v>0</v>
       </c>
       <c r="AI2" s="97">
-        <f t="shared" si="5"/>
-        <v>0.64922534473928728</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="97">
-        <f t="shared" si="5"/>
-        <v>0.64922534473928728</v>
+        <v>0</v>
       </c>
       <c r="AK2" s="97">
-        <f t="shared" si="5"/>
-        <v>0.64922534473928728</v>
+        <v>0</v>
       </c>
       <c r="AL2" s="97">
-        <f t="shared" si="5"/>
-        <v>0.64922534473928728</v>
+        <v>0</v>
       </c>
       <c r="AM2" s="97">
-        <f t="shared" si="5"/>
-        <v>0.64922534473928728</v>
+        <v>0</v>
       </c>
       <c r="AN2" s="97">
-        <f t="shared" si="5"/>
-        <v>0.64922534473928728</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="97">
-        <f t="shared" si="5"/>
-        <v>0.64922534473928728</v>
+        <v>0</v>
       </c>
       <c r="AP2" s="97">
-        <f t="shared" si="5"/>
-        <v>0.64922534473928728</v>
+        <v>0</v>
       </c>
       <c r="AQ2" s="97">
-        <f t="shared" si="5"/>
-        <v>0.64922534473928728</v>
+        <v>0</v>
       </c>
       <c r="AR2" s="97">
-        <f t="shared" si="5"/>
-        <v>0.64922534473928728</v>
+        <v>0</v>
       </c>
       <c r="AS2" s="97">
-        <f t="shared" si="5"/>
-        <v>0.64922534473928728</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="97">
-        <f t="shared" si="5"/>
-        <v>0.64922534473928728</v>
+        <v>0</v>
       </c>
       <c r="AU2" s="97">
-        <f t="shared" si="5"/>
-        <v>0.64922534473928728</v>
+        <v>0</v>
       </c>
       <c r="AV2" s="97">
-        <f t="shared" si="5"/>
-        <v>0.64922534473928728</v>
+        <v>0</v>
       </c>
       <c r="AW2" s="97">
-        <f t="shared" si="5"/>
-        <v>0.64922534473928728</v>
+        <v>0</v>
       </c>
       <c r="AX2" s="97">
-        <f t="shared" si="5"/>
-        <v>0.64922534473928728</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="97">
-        <f t="shared" si="5"/>
-        <v>0.64922534473928728</v>
+        <v>0</v>
       </c>
       <c r="AZ2" s="97">
-        <f t="shared" si="5"/>
-        <v>0.64922534473928728</v>
+        <v>0</v>
       </c>
       <c r="BA2" s="97">
-        <f t="shared" si="5"/>
-        <v>0.64922534473928728</v>
+        <v>0</v>
       </c>
       <c r="BB2" s="97">
-        <f t="shared" si="5"/>
-        <v>0.64922534473928728</v>
+        <v>0</v>
       </c>
       <c r="BC2" s="97">
-        <f t="shared" si="5"/>
-        <v>0.64922534473928728</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="97">
-        <f t="shared" si="5"/>
-        <v>0.64922534473928728</v>
+        <v>0</v>
       </c>
       <c r="BE2" s="97">
-        <f t="shared" si="5"/>
-        <v>0.64922534473928728</v>
+        <v>0</v>
       </c>
       <c r="BF2" s="97">
-        <f t="shared" si="5"/>
-        <v>0.64922534473928728</v>
+        <v>0</v>
       </c>
       <c r="BG2" s="97">
-        <f t="shared" si="5"/>
-        <v>0.64922534473928728</v>
+        <v>0</v>
       </c>
       <c r="BH2" s="97">
-        <f t="shared" si="5"/>
-        <v>0.64922534473928728</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="97">
-        <f t="shared" si="5"/>
-        <v>0.64922534473928728</v>
+        <v>0</v>
       </c>
       <c r="BJ2" s="97">
-        <f t="shared" si="5"/>
-        <v>0.64922534473928728</v>
+        <v>0</v>
       </c>
       <c r="BK2" s="97">
-        <f t="shared" si="5"/>
-        <v>0.64922534473928728</v>
+        <v>0</v>
       </c>
       <c r="BL2" s="97">
-        <f t="shared" si="5"/>
-        <v>0.64922534473928728</v>
+        <v>0</v>
       </c>
       <c r="BM2" s="97">
-        <f t="shared" si="5"/>
-        <v>0.64922534473928728</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="97">
-        <f t="shared" si="5"/>
-        <v>0.64922534473928728</v>
+        <v>0</v>
       </c>
       <c r="BO2" s="97">
-        <f t="shared" si="5"/>
-        <v>0.64922534473928728</v>
+        <v>0</v>
       </c>
       <c r="BP2" s="97">
-        <f t="shared" si="5"/>
-        <v>0.64922534473928728</v>
+        <v>0</v>
       </c>
       <c r="BQ2" s="97">
-        <f t="shared" si="5"/>
-        <v>0.64922534473928728</v>
+        <v>0</v>
       </c>
       <c r="BR2" s="97">
-        <f t="shared" si="5"/>
-        <v>0.64922534473928728</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="97">
-        <f t="shared" si="5"/>
-        <v>0.64922534473928728</v>
+        <v>0</v>
       </c>
       <c r="BT2" s="97">
-        <f t="shared" si="5"/>
-        <v>0.64922534473928728</v>
+        <v>0</v>
       </c>
       <c r="BU2" s="97">
-        <f t="shared" si="5"/>
-        <v>0.64922534473928728</v>
+        <v>0</v>
       </c>
       <c r="BV2" s="97">
-        <f t="shared" si="5"/>
-        <v>0.64922534473928728</v>
+        <v>0</v>
       </c>
       <c r="BW2" s="97">
-        <f t="shared" si="5"/>
-        <v>0.64922534473928728</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="97">
-        <f t="shared" si="5"/>
-        <v>0.64922534473928728</v>
+        <v>0</v>
       </c>
       <c r="BY2" s="97">
-        <f t="shared" si="5"/>
-        <v>0.64922534473928728</v>
+        <v>0</v>
       </c>
       <c r="BZ2" s="97">
-        <f t="shared" si="5"/>
-        <v>0.64922534473928728</v>
+        <v>0</v>
       </c>
       <c r="CA2" s="97">
-        <f t="shared" si="5"/>
-        <v>0.64922534473928728</v>
+        <v>0</v>
       </c>
       <c r="CB2" s="97">
-        <f t="shared" si="5"/>
-        <v>0.64922534473928728</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="97">
-        <f t="shared" si="5"/>
-        <v>0.64922534473928728</v>
+        <v>0</v>
       </c>
       <c r="CD2" s="97">
-        <f>CC2</f>
-        <v>0.64922534473928728</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -11459,26 +11377,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="00484652-42e1-479e-92f4-fb0efddcdf60">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A08BDF573E2FFD46A5F05DED9AF68025" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f85c0eb68479ad8b8987805fd5b8836b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="00484652-42e1-479e-92f4-fb0efddcdf60" xmlns:ns3="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f7dbc72841229da9eaa30ebb1456cd70" ns2:_="" ns3:_="">
     <xsd:import namespace="00484652-42e1-479e-92f4-fb0efddcdf60"/>
@@ -11701,26 +11599,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{590B8475-9753-4E3C-A7F2-B5338C3230C4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="00484652-42e1-479e-92f4-fb0efddcdf60"/>
-    <ds:schemaRef ds:uri="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54381C5D-9D5F-432B-A493-5A63EA7647FE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="00484652-42e1-479e-92f4-fb0efddcdf60">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2A0670A-9DC4-49E6-8682-C6AD1A72D567}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11737,4 +11636,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54381C5D-9D5F-432B-A493-5A63EA7647FE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{590B8475-9753-4E3C-A7F2-B5338C3230C4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="00484652-42e1-479e-92f4-fb0efddcdf60"/>
+    <ds:schemaRef ds:uri="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>